--- a/Config/PopData.xlsx
+++ b/Config/PopData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
   <si>
     <t>Male</t>
   </si>
@@ -288,12 +288,6 @@
     <t>Values based on previous study, calibrated to fit age-specific HIV incidence and prevalence data</t>
   </si>
   <si>
-    <t>1990, prior to generalized HIV epidemic</t>
-  </si>
-  <si>
-    <t>Anderson et al , Ross et al</t>
-  </si>
-  <si>
     <r>
       <t>CD4 &gt; 500</t>
     </r>
@@ -399,28 +393,10 @@
     <t>Estimated</t>
   </si>
   <si>
-    <t>TFR</t>
-  </si>
-  <si>
     <t>5 - 9</t>
   </si>
   <si>
-    <t>10 - 14</t>
-  </si>
-  <si>
     <t>0 - 4</t>
-  </si>
-  <si>
-    <t>50-54</t>
-  </si>
-  <si>
-    <t>55-59</t>
-  </si>
-  <si>
-    <t>50-59 from subsaharan africa data</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4291094/table/T1/</t>
   </si>
   <si>
     <t>Multiplier</t>
@@ -517,7 +493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,8 +595,139 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,8 +752,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -788,17 +1068,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -833,11 +1102,282 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="32">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="32">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -912,44 +1452,24 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,19 +1493,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -998,6 +1511,48 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1038,8 +1593,55 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="48">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Data" xfId="45"/>
+    <cellStyle name="Data 2" xfId="47"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Header" xfId="44"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2 2" xfId="46"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent 2" xfId="43"/>
+    <cellStyle name="Title 2" xfId="41"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1055,1953 +1657,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0 - 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$34:$AE$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 - 9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$35:$AE$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 - 14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$36:$AE$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15 – 19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$37:$AE$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8.3000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.3000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.5999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.2999999999999995E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20 – 24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.9390408017179668E-3"/>
-                  <c:y val="-7.6844565985146399E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$38:$AE$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.186</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.158</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25 – 29</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2064595561918395E-2"/>
-                  <c:y val="1.5398400955799602E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$39:$AE$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.19700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.185</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.184</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.161</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.126</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.11700000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30 – 34</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$40:$AE$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.219</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.161</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.159</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.108</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.10199999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>35 – 39</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$41:$AE$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.13400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.114</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.115</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.1000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.1999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.6999999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40 – 44</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$42:$AE$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4000000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Demographics!$O$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>45 – 49</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Demographics!$P$33:$AE$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Demographics!$P$43:$AE$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-822E-42EA-8965-2927A6E075D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1227707679"/>
-        <c:axId val="1227704767"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1227707679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1227704767"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1227704767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1227707679"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3820,7 +2475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4635,7 +3290,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5271,7 +3926,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5617,7 +4272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6319,7 +4974,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6770,7 +5425,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7317,7 +5972,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7994,563 +6649,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9046,7 +7145,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9542,7 +7641,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10038,7 +8137,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10554,7 +8653,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11070,7 +9169,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11586,7 +9685,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12102,7 +10201,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12764,36 +10863,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>492579</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>535214</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>575468</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -12816,7 +10885,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12846,7 +10915,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12876,7 +10945,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13306,8 +11375,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13352,35 +11421,35 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="O1" s="79" t="s">
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="O1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="73"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="78"/>
       <c r="Y1" s="3" t="s">
         <v>8</v>
       </c>
@@ -13395,7 +11464,7 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="2"/>
       <c r="AH1" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>9</v>
@@ -13426,7 +11495,7 @@
       <c r="C2" s="23">
         <v>417311</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
@@ -13445,17 +11514,17 @@
       <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="74" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="74" t="s">
+      <c r="S2" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="74" t="s">
-        <v>43</v>
+      <c r="T2" s="79" t="s">
+        <v>41</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>18</v>
@@ -13482,21 +11551,21 @@
       <c r="AD2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="35" t="s">
         <v>11</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AI2" s="61">
+      <c r="AI2" s="50">
         <f>52*4.5</f>
         <v>234</v>
       </c>
-      <c r="AJ2" s="61">
+      <c r="AJ2" s="50">
         <f>AI2*0.6</f>
         <v>140.4</v>
       </c>
-      <c r="AK2" s="61">
+      <c r="AK2" s="50">
         <f>AJ2*0.6</f>
         <v>84.24</v>
       </c>
@@ -13506,10 +11575,10 @@
       <c r="AN2" s="25">
         <v>1985</v>
       </c>
-      <c r="AO2" s="61">
+      <c r="AO2" s="50">
         <v>0.3</v>
       </c>
-      <c r="AP2" s="61">
+      <c r="AP2" s="50">
         <v>0.3</v>
       </c>
     </row>
@@ -13545,12 +11614,12 @@
         <f>1-J3-K3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
       <c r="U3" s="10" t="s">
         <v>23</v>
       </c>
@@ -13588,25 +11657,25 @@
       <c r="AH3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AI3" s="61">
+      <c r="AI3" s="50">
         <f>52*4.5</f>
         <v>234</v>
       </c>
-      <c r="AJ3" s="61">
+      <c r="AJ3" s="50">
         <f>AI3*0.6</f>
         <v>140.4</v>
       </c>
-      <c r="AK3" s="61">
+      <c r="AK3" s="50">
         <f>AJ3*0.6</f>
         <v>84.24</v>
       </c>
       <c r="AN3" s="25">
         <v>1988</v>
       </c>
-      <c r="AO3" s="61">
+      <c r="AO3" s="50">
         <v>0.4</v>
       </c>
-      <c r="AP3" s="61">
+      <c r="AP3" s="50">
         <v>0.4</v>
       </c>
     </row>
@@ -13649,10 +11718,10 @@
         <v>15</v>
       </c>
       <c r="P4" s="23">
-        <v>9.1999999999999998E-3</v>
+        <v>9.7736974618099839E-3</v>
       </c>
       <c r="Q4" s="23">
-        <v>9.1999999999999998E-3</v>
+        <v>8.8057230624727749E-3</v>
       </c>
       <c r="R4" s="23">
         <v>0</v>
@@ -13705,10 +11774,10 @@
       <c r="AN4" s="25">
         <v>2003</v>
       </c>
-      <c r="AO4" s="61">
+      <c r="AO4" s="50">
         <v>0.3</v>
       </c>
-      <c r="AP4" s="61">
+      <c r="AP4" s="50">
         <v>0.3</v>
       </c>
     </row>
@@ -13749,10 +11818,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="23">
-        <v>5.2999999999999998E-4</v>
+        <v>7.0479241332746252E-4</v>
       </c>
       <c r="Q5" s="23">
-        <v>4.0000000000000002E-4</v>
+        <v>5.2457282047517039E-4</v>
       </c>
       <c r="R5" s="23">
         <v>0</v>
@@ -13787,10 +11856,10 @@
       <c r="AC5" s="23">
         <v>1.2E-2</v>
       </c>
-      <c r="AD5" s="42">
+      <c r="AD5" s="34">
         <v>0.12</v>
       </c>
-      <c r="AE5" s="44">
+      <c r="AE5" s="36">
         <v>1.2</v>
       </c>
     </row>
@@ -13829,10 +11898,10 @@
         <v>25</v>
       </c>
       <c r="P6" s="23">
-        <v>5.5999999999999995E-4</v>
+        <v>6.6512031823691051E-4</v>
       </c>
       <c r="Q6" s="23">
-        <v>4.2999999999999999E-4</v>
+        <v>4.8877879149405545E-4</v>
       </c>
       <c r="R6" s="23">
         <v>0</v>
@@ -13867,10 +11936,10 @@
       <c r="AC6" s="23">
         <v>0.66959798994974873</v>
       </c>
-      <c r="AD6" s="42">
+      <c r="AD6" s="34">
         <v>2.2142857142857144</v>
       </c>
-      <c r="AE6" s="45">
+      <c r="AE6" s="37">
         <v>6.5</v>
       </c>
       <c r="AN6" t="s">
@@ -13912,10 +11981,10 @@
         <v>28</v>
       </c>
       <c r="P7" s="23">
-        <v>1.83E-3</v>
+        <v>1.5342977725554027E-3</v>
       </c>
       <c r="Q7" s="23">
-        <v>7.6000000000000004E-4</v>
+        <v>9.035280767087482E-4</v>
       </c>
       <c r="R7" s="23">
         <v>0.1414</v>
@@ -13950,10 +12019,10 @@
       <c r="AC7" s="23">
         <v>0.79487179487179482</v>
       </c>
-      <c r="AD7" s="42">
+      <c r="AD7" s="34">
         <v>2.25</v>
       </c>
-      <c r="AE7" s="45">
+      <c r="AE7" s="37">
         <v>10</v>
       </c>
     </row>
@@ -13992,10 +12061,10 @@
         <v>30</v>
       </c>
       <c r="P8" s="23">
-        <v>3.98E-3</v>
+        <v>3.0300276114214515E-3</v>
       </c>
       <c r="Q8" s="23">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6915946235478447E-3</v>
       </c>
       <c r="R8" s="23">
         <v>0.27800000000000002</v>
@@ -14030,22 +12099,22 @@
       <c r="AC8" s="23">
         <v>0.80509304603330067</v>
       </c>
-      <c r="AD8" s="42">
+      <c r="AD8" s="34">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE8" s="45">
+      <c r="AE8" s="37">
         <v>5.333333333333333</v>
       </c>
-      <c r="AG8" s="62" t="s">
+      <c r="AG8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
     </row>
     <row r="9" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
@@ -14083,10 +12152,10 @@
         <v>31</v>
       </c>
       <c r="P9" s="23">
-        <v>5.1399999999999996E-3</v>
+        <v>4.1525896502580392E-3</v>
       </c>
       <c r="Q9" s="23">
-        <v>1.83E-3</v>
+        <v>2.0719480819543991E-3</v>
       </c>
       <c r="R9" s="23">
         <v>0.28360000000000002</v>
@@ -14121,27 +12190,27 @@
       <c r="AC9" s="23">
         <v>0.75512405609492983</v>
       </c>
-      <c r="AD9" s="42">
+      <c r="AD9" s="34">
         <v>2.0625</v>
       </c>
-      <c r="AE9" s="45">
+      <c r="AE9" s="37">
         <v>1</v>
       </c>
-      <c r="AG9" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ9" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK9" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL9" s="62" t="s">
-        <v>105</v>
+      <c r="AG9" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK9" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL9" s="51" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14179,10 +12248,10 @@
         <v>34</v>
       </c>
       <c r="P10" s="23">
-        <v>6.0600000000000003E-3</v>
+        <v>4.9862944509861482E-3</v>
       </c>
       <c r="Q10" s="23">
-        <v>2.5200000000000001E-3</v>
+        <v>2.4601074470881829E-3</v>
       </c>
       <c r="R10" s="23">
         <v>0.2112</v>
@@ -14217,24 +12286,24 @@
       <c r="AC10" s="23">
         <v>0.75529411764705878</v>
       </c>
-      <c r="AD10" s="42">
+      <c r="AD10" s="34">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE10" s="45">
+      <c r="AE10" s="37">
         <v>9</v>
       </c>
-      <c r="AG10" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="64">
+      <c r="AG10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="53">
         <v>0</v>
       </c>
-      <c r="AK10" s="64">
+      <c r="AK10" s="53">
         <v>0</v>
       </c>
-      <c r="AL10" s="64">
+      <c r="AL10" s="53">
         <v>0</v>
       </c>
     </row>
@@ -14275,10 +12344,10 @@
         <v>33</v>
       </c>
       <c r="P11" s="23">
-        <v>7.1500000000000001E-3</v>
+        <v>5.8081155880338586E-3</v>
       </c>
       <c r="Q11" s="23">
-        <v>3.15E-3</v>
+        <v>2.9925533571735037E-3</v>
       </c>
       <c r="R11" s="23">
         <v>0.1348</v>
@@ -14313,24 +12382,24 @@
       <c r="AC11" s="23">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD11" s="42">
+      <c r="AD11" s="34">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE11" s="45">
+      <c r="AE11" s="37">
         <v>1</v>
       </c>
-      <c r="AG11" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="64">
+      <c r="AG11" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="53">
         <v>0</v>
       </c>
-      <c r="AK11" s="64">
+      <c r="AK11" s="53">
         <v>0</v>
       </c>
-      <c r="AL11" s="64">
+      <c r="AL11" s="53">
         <v>0</v>
       </c>
     </row>
@@ -14370,10 +12439,10 @@
         <v>35</v>
       </c>
       <c r="P12" s="23">
-        <v>9.5200000000000007E-3</v>
+        <v>7.5246430745063543E-3</v>
       </c>
       <c r="Q12" s="23">
-        <v>4.4799999999999996E-3</v>
+        <v>3.9413474052092329E-3</v>
       </c>
       <c r="R12" s="23">
         <v>5.4200000000000005E-2</v>
@@ -14408,37 +12477,37 @@
       <c r="AC12" s="23">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD12" s="42">
+      <c r="AD12" s="34">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE12" s="45">
+      <c r="AE12" s="37">
         <v>1</v>
       </c>
-      <c r="AG12" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="65">
+      <c r="AG12" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="54">
         <v>0.05</v>
       </c>
-      <c r="AJ12" s="66">
+      <c r="AJ12" s="55">
         <v>11.700000000000001</v>
       </c>
-      <c r="AK12" s="66">
+      <c r="AK12" s="55">
         <v>7.0200000000000005</v>
       </c>
-      <c r="AL12" s="66">
+      <c r="AL12" s="55">
         <v>4.2119999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="42">
         <v>70487</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="42">
         <v>82330</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -14467,10 +12536,10 @@
         <v>36</v>
       </c>
       <c r="P13" s="23">
-        <v>1.1780000000000001E-2</v>
+        <v>1.020645363647849E-2</v>
       </c>
       <c r="Q13" s="23">
-        <v>5.7600000000000004E-3</v>
+        <v>5.3575989334735206E-3</v>
       </c>
       <c r="R13" s="23">
         <v>1.7600000000000001E-2</v>
@@ -14505,41 +12574,41 @@
       <c r="AC13" s="23">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD13" s="42">
+      <c r="AD13" s="34">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE13" s="45">
+      <c r="AE13" s="37">
         <v>1</v>
       </c>
-      <c r="AG13" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="65">
+      <c r="AG13" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="54">
         <v>0.1</v>
       </c>
-      <c r="AJ13" s="66">
+      <c r="AJ13" s="55">
         <f>AJ15*$AI$13</f>
         <v>23.400000000000002</v>
       </c>
-      <c r="AK13" s="66">
+      <c r="AK13" s="55">
         <f>AK15*$AI$13</f>
         <v>14.040000000000001</v>
       </c>
-      <c r="AL13" s="66">
+      <c r="AL13" s="55">
         <f>AL15*$AI$13</f>
         <v>8.4239999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="51">
+      <c r="A14" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="43">
         <f>314094/6.27</f>
         <v>50094.736842105267</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="43">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
@@ -14569,10 +12638,10 @@
         <v>37</v>
       </c>
       <c r="P14" s="23">
-        <v>1.711E-2</v>
+        <v>1.4201688569479806E-2</v>
       </c>
       <c r="Q14" s="23">
-        <v>9.6399999999999993E-3</v>
+        <v>7.5410818923787939E-3</v>
       </c>
       <c r="R14" s="23">
         <v>0</v>
@@ -14607,74 +12676,74 @@
       <c r="AC14" s="23">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD14" s="42">
+      <c r="AD14" s="34">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE14" s="45">
+      <c r="AE14" s="37">
         <v>1</v>
       </c>
-      <c r="AG14" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60">
+      <c r="AG14" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49">
         <v>0.7</v>
       </c>
-      <c r="AJ14" s="64">
+      <c r="AJ14" s="53">
         <f>AJ15*AI14</f>
         <v>163.79999999999998</v>
       </c>
-      <c r="AK14" s="64">
+      <c r="AK14" s="53">
         <f>AK15*AI14</f>
         <v>98.28</v>
       </c>
-      <c r="AL14" s="64">
+      <c r="AL14" s="53">
         <f>AL15*AI14</f>
         <v>58.967999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="51">
+      <c r="A15" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="43">
         <f>224490/6.27</f>
         <v>35803.827751196171</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="43">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="48">
+      <c r="F15" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="40">
         <v>0.85074626865671632</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="40">
         <f t="shared" si="2"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="40">
         <v>1E-3</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="40">
         <v>0.99568965517241381</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="40">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="40">
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P15" s="23">
-        <v>2.0809999999999999E-2</v>
+        <v>1.9689807514862868E-2</v>
       </c>
       <c r="Q15" s="23">
-        <v>1.2930000000000001E-2</v>
+        <v>1.0540154917424747E-2</v>
       </c>
       <c r="R15" s="23">
         <v>0</v>
@@ -14694,257 +12763,257 @@
       <c r="W15" s="23">
         <v>0</v>
       </c>
-      <c r="Y15" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z15" s="54">
+      <c r="Y15" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z15" s="46">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA15" s="54">
+      <c r="AA15" s="46">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB15" s="54">
+      <c r="AB15" s="46">
         <v>1</v>
       </c>
-      <c r="AC15" s="54">
+      <c r="AC15" s="46">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD15" s="55">
+      <c r="AD15" s="47">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE15" s="56">
+      <c r="AE15" s="48">
         <v>1</v>
       </c>
-      <c r="AG15" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH15" s="65">
+      <c r="AG15" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH15" s="54">
         <v>1</v>
       </c>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="66">
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="55">
         <v>234</v>
       </c>
-      <c r="AK15" s="66">
+      <c r="AK15" s="55">
         <v>140.4</v>
       </c>
-      <c r="AL15" s="66">
+      <c r="AL15" s="55">
         <v>84.24</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="51">
+      <c r="A16" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="43">
         <f>151123/6.27</f>
         <v>24102.551834130783</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="43">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="48">
+      <c r="F16" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="40">
         <v>0.85074626865671632</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="40">
         <f t="shared" si="2"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="40">
         <v>1E-3</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="40">
         <v>0.99568965517241381</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="40">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="40">
         <v>1.4367816091954023E-3</v>
       </c>
-      <c r="O16" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" s="54">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="Q16" s="54">
-        <v>1.2930000000000001E-2</v>
-      </c>
-      <c r="R16" s="54">
+      <c r="O16" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="46">
+        <v>2.6650488106048104E-2</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>1.5759592316689931E-2</v>
+      </c>
+      <c r="R16" s="46">
         <v>0</v>
       </c>
-      <c r="S16" s="54">
+      <c r="S16" s="46">
         <v>0</v>
       </c>
-      <c r="T16" s="54">
+      <c r="T16" s="46">
         <v>0</v>
       </c>
-      <c r="U16" s="54">
+      <c r="U16" s="46">
         <v>0</v>
       </c>
-      <c r="V16" s="54">
+      <c r="V16" s="46">
         <v>0</v>
       </c>
-      <c r="W16" s="54">
+      <c r="W16" s="46">
         <v>0</v>
       </c>
-      <c r="Y16" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z16" s="54">
+      <c r="Y16" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z16" s="46">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA16" s="54">
+      <c r="AA16" s="46">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB16" s="54">
+      <c r="AB16" s="46">
         <v>1</v>
       </c>
-      <c r="AC16" s="54">
+      <c r="AC16" s="46">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD16" s="55">
+      <c r="AD16" s="47">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE16" s="56">
+      <c r="AE16" s="48">
         <v>1</v>
       </c>
-      <c r="AG16" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH16" s="65">
+      <c r="AG16" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH16" s="54">
         <v>5</v>
       </c>
-      <c r="AI16" s="60">
+      <c r="AI16" s="49">
         <f t="shared" ref="AI16:AI25" si="3">EXP(LN(0.5)*AH16/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AJ16" s="66">
+      <c r="AJ16" s="55">
         <f t="shared" ref="AJ16:AJ25" si="4">$AJ$15*AI16</f>
         <v>165.46298679765212</v>
       </c>
-      <c r="AK16" s="66">
+      <c r="AK16" s="55">
         <f t="shared" ref="AK16:AK25" si="5">$AK$15*AI16</f>
         <v>99.27779207859129</v>
       </c>
-      <c r="AL16" s="66">
+      <c r="AL16" s="55">
         <f t="shared" ref="AL16:AL25" si="6">$AL$15*AI16</f>
         <v>59.566675247154762</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="51">
+      <c r="A17" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="43">
         <f>89288/6.27</f>
         <v>14240.510366826158</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="43">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="48">
+      <c r="F17" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="40">
         <v>0.85074626865671632</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="40">
         <f t="shared" si="2"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="40">
         <v>1E-3</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="40">
         <v>0.99568965517241381</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="40">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="40">
         <v>1.4367816091954023E-3</v>
       </c>
-      <c r="O17" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="54">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="Q17" s="54">
-        <v>1.2930000000000001E-2</v>
-      </c>
-      <c r="R17" s="54">
+      <c r="O17" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="46">
+        <v>3.6763608595780588E-2</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>2.2837523063216215E-2</v>
+      </c>
+      <c r="R17" s="46">
         <v>0</v>
       </c>
-      <c r="S17" s="54">
+      <c r="S17" s="46">
         <v>0</v>
       </c>
-      <c r="T17" s="54">
+      <c r="T17" s="46">
         <v>0</v>
       </c>
-      <c r="U17" s="54">
+      <c r="U17" s="46">
         <v>0</v>
       </c>
-      <c r="V17" s="54">
+      <c r="V17" s="46">
         <v>0</v>
       </c>
-      <c r="W17" s="54">
+      <c r="W17" s="46">
         <v>0</v>
       </c>
-      <c r="Y17" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z17" s="54">
+      <c r="Y17" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17" s="46">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA17" s="54">
+      <c r="AA17" s="46">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB17" s="54">
+      <c r="AB17" s="46">
         <v>1</v>
       </c>
-      <c r="AC17" s="54">
+      <c r="AC17" s="46">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD17" s="55">
+      <c r="AD17" s="47">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE17" s="56">
+      <c r="AE17" s="48">
         <v>1</v>
       </c>
-      <c r="AG17" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH17" s="65">
+      <c r="AG17" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH17" s="54">
         <v>10</v>
       </c>
-      <c r="AI17" s="60">
+      <c r="AI17" s="49">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="AJ17" s="66">
+      <c r="AJ17" s="55">
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="AK17" s="66">
+      <c r="AK17" s="55">
         <f t="shared" si="5"/>
         <v>70.2</v>
       </c>
-      <c r="AL17" s="66">
+      <c r="AL17" s="55">
         <f t="shared" si="6"/>
         <v>42.12</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="52" t="s">
-        <v>44</v>
+      <c r="A18" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="20">
         <f>SUM(B2:B17)</f>
@@ -14958,96 +13027,96 @@
         <f>SUM(B18:C18)</f>
         <v>5703373.2934609242</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="48">
+      <c r="F18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="40">
         <v>0.85074626865671632</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="40">
         <f t="shared" si="2"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="40">
         <v>1E-3</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="40">
         <v>0.99568965517241381</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="40">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="40">
         <v>1.4367816091954023E-3</v>
       </c>
-      <c r="O18" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="54">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="Q18" s="54">
-        <v>1.2930000000000001E-2</v>
-      </c>
-      <c r="R18" s="54">
+      <c r="O18" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="46">
+        <v>5.1790400883394136E-2</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>3.3336893194863555E-2</v>
+      </c>
+      <c r="R18" s="46">
         <v>0</v>
       </c>
-      <c r="S18" s="54">
+      <c r="S18" s="46">
         <v>0</v>
       </c>
-      <c r="T18" s="54">
+      <c r="T18" s="46">
         <v>0</v>
       </c>
-      <c r="U18" s="54">
+      <c r="U18" s="46">
         <v>0</v>
       </c>
-      <c r="V18" s="54">
+      <c r="V18" s="46">
         <v>0</v>
       </c>
-      <c r="W18" s="54">
+      <c r="W18" s="46">
         <v>0</v>
       </c>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z18" s="54">
+      <c r="X18" s="29"/>
+      <c r="Y18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z18" s="46">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA18" s="54">
+      <c r="AA18" s="46">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB18" s="54">
+      <c r="AB18" s="46">
         <v>1</v>
       </c>
-      <c r="AC18" s="54">
+      <c r="AC18" s="46">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD18" s="55">
+      <c r="AD18" s="47">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE18" s="56">
+      <c r="AE18" s="48">
         <v>1</v>
       </c>
-      <c r="AG18" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH18" s="65">
+      <c r="AG18" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH18" s="54">
         <v>15</v>
       </c>
-      <c r="AI18" s="60">
+      <c r="AI18" s="49">
         <f t="shared" si="3"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AJ18" s="66">
+      <c r="AJ18" s="55">
         <f t="shared" si="4"/>
         <v>82.731493398826061</v>
       </c>
-      <c r="AK18" s="66">
+      <c r="AK18" s="55">
         <f t="shared" si="5"/>
         <v>49.638896039295645</v>
       </c>
-      <c r="AL18" s="66">
+      <c r="AL18" s="55">
         <f t="shared" si="6"/>
         <v>29.783337623577381</v>
       </c>
@@ -15055,52 +13124,52 @@
     <row r="19" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="O19" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="54">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="Q19" s="54">
-        <v>1.2930000000000001E-2</v>
-      </c>
-      <c r="R19" s="54">
+      <c r="O19" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="46">
+        <v>8.3577387695122712E-2</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>6.1722846856347699E-2</v>
+      </c>
+      <c r="R19" s="46">
         <v>0</v>
       </c>
-      <c r="S19" s="54">
+      <c r="S19" s="46">
         <v>0</v>
       </c>
-      <c r="T19" s="54">
+      <c r="T19" s="46">
         <v>0</v>
       </c>
-      <c r="U19" s="54">
+      <c r="U19" s="46">
         <v>0</v>
       </c>
-      <c r="V19" s="54">
+      <c r="V19" s="46">
         <v>0</v>
       </c>
-      <c r="W19" s="54">
+      <c r="W19" s="46">
         <v>0</v>
       </c>
-      <c r="AG19" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH19" s="65">
+      <c r="AG19" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH19" s="54">
         <v>20</v>
       </c>
-      <c r="AI19" s="60">
+      <c r="AI19" s="49">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="AJ19" s="66">
+      <c r="AJ19" s="55">
         <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="AK19" s="66">
+      <c r="AK19" s="55">
         <f t="shared" si="5"/>
         <v>35.1</v>
       </c>
-      <c r="AL19" s="66">
+      <c r="AL19" s="55">
         <f t="shared" si="6"/>
         <v>21.06</v>
       </c>
@@ -15108,52 +13177,76 @@
     <row r="20" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="AG20" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH20" s="65">
+      <c r="AG20" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH20" s="54">
         <v>25</v>
       </c>
-      <c r="AI20" s="60">
+      <c r="AI20" s="49">
         <f t="shared" si="3"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="AJ20" s="66">
+      <c r="AJ20" s="55">
         <f t="shared" si="4"/>
         <v>41.36574669941303</v>
       </c>
-      <c r="AK20" s="66">
+      <c r="AK20" s="55">
         <f t="shared" si="5"/>
         <v>24.819448019647822</v>
       </c>
-      <c r="AL20" s="66">
+      <c r="AL20" s="55">
         <f t="shared" si="6"/>
         <v>14.891668811788691</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R21">
+        <f>5*SUM(R7:R13)</f>
+        <v>5.604000000000001</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:W21" si="7">5*SUM(S7:S13)</f>
+        <v>5.604000000000001</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
+        <v>5.604000000000001</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="7"/>
+        <v>3.2503200000000003</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>3.2503200000000003</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="7"/>
+        <v>2.2976400000000003</v>
+      </c>
       <c r="Y21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG21" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH21" s="65">
+        <v>76</v>
+      </c>
+      <c r="AG21" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH21" s="54">
         <v>30</v>
       </c>
-      <c r="AI21" s="60">
+      <c r="AI21" s="49">
         <f t="shared" si="3"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="AJ21" s="66">
+      <c r="AJ21" s="55">
         <f t="shared" si="4"/>
         <v>29.250000000000007</v>
       </c>
-      <c r="AK21" s="66">
+      <c r="AK21" s="55">
         <f t="shared" si="5"/>
         <v>17.550000000000004</v>
       </c>
-      <c r="AL21" s="66">
+      <c r="AL21" s="55">
         <f t="shared" si="6"/>
         <v>10.530000000000001</v>
       </c>
@@ -15164,25 +13257,25 @@
       <c r="Y22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AG22" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH22" s="65">
+      <c r="AG22" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH22" s="54">
         <v>35</v>
       </c>
-      <c r="AI22" s="60">
+      <c r="AI22" s="49">
         <f t="shared" si="3"/>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="AJ22" s="66">
+      <c r="AJ22" s="55">
         <f t="shared" si="4"/>
         <v>20.682873349706515</v>
       </c>
-      <c r="AK22" s="66">
+      <c r="AK22" s="55">
         <f t="shared" si="5"/>
         <v>12.409724009823911</v>
       </c>
-      <c r="AL22" s="66">
+      <c r="AL22" s="55">
         <f t="shared" si="6"/>
         <v>7.4458344058943453</v>
       </c>
@@ -15192,44 +13285,44 @@
         <v>39</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="F23" s="46"/>
-      <c r="P23" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="S23" s="39" t="s">
+      <c r="F23" s="38"/>
+      <c r="P23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="S23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="39" t="s">
-        <v>83</v>
+      <c r="T23" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="Y23" t="s">
         <v>29</v>
       </c>
-      <c r="AG23" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH23" s="65">
+      <c r="AG23" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH23" s="54">
         <v>40</v>
       </c>
-      <c r="AI23" s="60">
+      <c r="AI23" s="49">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="AJ23" s="66">
+      <c r="AJ23" s="55">
         <f t="shared" si="4"/>
         <v>14.625</v>
       </c>
-      <c r="AK23" s="66">
+      <c r="AK23" s="55">
         <f t="shared" si="5"/>
         <v>8.7750000000000004</v>
       </c>
-      <c r="AL23" s="66">
+      <c r="AL23" s="55">
         <f t="shared" si="6"/>
         <v>5.2649999999999997</v>
       </c>
@@ -15237,124 +13330,188 @@
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="O24" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="P24" s="41">
+      <c r="O24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="33">
         <f>S7/$R$7</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="Q24" s="33">
         <f>T7/$R$7</f>
         <v>1</v>
       </c>
-      <c r="R24" s="41">
+      <c r="R24" s="33">
         <f>U7/$R$7</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="S24" s="41">
+      <c r="S24" s="33">
         <f>V7/$R$7</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="T24" s="41">
+      <c r="T24" s="33">
         <f>W7/$R$7</f>
         <v>0.41000000000000003</v>
       </c>
-      <c r="AG24" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH24" s="65">
+      <c r="AG24" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH24" s="54">
         <v>45</v>
       </c>
-      <c r="AI24" s="60">
+      <c r="AI24" s="49">
         <f t="shared" si="3"/>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="AJ24" s="66">
+      <c r="AJ24" s="55">
         <f t="shared" si="4"/>
         <v>10.341436674853258</v>
       </c>
-      <c r="AK24" s="66">
+      <c r="AK24" s="55">
         <f t="shared" si="5"/>
         <v>6.2048620049119556</v>
       </c>
-      <c r="AL24" s="66">
+      <c r="AL24" s="55">
         <f t="shared" si="6"/>
         <v>3.7229172029471727</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="AG25" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH25" s="65">
+      <c r="AG25" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH25" s="54">
         <v>50</v>
       </c>
-      <c r="AI25" s="60">
+      <c r="AI25" s="49">
         <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
-      <c r="AJ25" s="66">
+      <c r="AJ25" s="55">
         <f t="shared" si="4"/>
         <v>7.3125</v>
       </c>
-      <c r="AK25" s="66">
+      <c r="AK25" s="55">
         <f t="shared" si="5"/>
         <v>4.3875000000000002</v>
       </c>
-      <c r="AL25" s="66">
+      <c r="AL25" s="55">
         <f t="shared" si="6"/>
         <v>2.6324999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L26" s="14"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
     </row>
-    <row r="27" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="68"/>
-      <c r="AK27" s="68"/>
-      <c r="AL27" s="68"/>
+    <row r="27" spans="1:38" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="R27" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="V27" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="W27" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
     </row>
-    <row r="28" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
+    <row r="28" spans="1:38" ht="31" x14ac:dyDescent="0.35">
+      <c r="R28" s="71"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="V28" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="W28" s="74"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
+    <row r="29" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R29" s="59">
+        <v>0</v>
+      </c>
+      <c r="S29" s="59">
+        <v>0</v>
+      </c>
+      <c r="T29" s="59">
+        <v>0</v>
+      </c>
+      <c r="U29" s="59">
+        <v>0</v>
+      </c>
+      <c r="V29" s="59">
+        <v>0</v>
+      </c>
+      <c r="W29" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="AG30" s="69" t="s">
+    <row r="30" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R30" s="59">
+        <v>0</v>
+      </c>
+      <c r="S30" s="59">
+        <v>0</v>
+      </c>
+      <c r="T30" s="59">
+        <v>0</v>
+      </c>
+      <c r="U30" s="59">
+        <v>0</v>
+      </c>
+      <c r="V30" s="59">
+        <v>0</v>
+      </c>
+      <c r="W30" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK30" s="70"/>
-      <c r="AL30" s="70"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK30" s="75"/>
+      <c r="AL30" s="75"/>
     </row>
     <row r="31" spans="1:38" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="53" t="s">
-        <v>107</v>
+      <c r="A31" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="B31">
         <f>16661041/2656744</f>
@@ -15364,214 +13521,184 @@
         <f>17593051/2763571</f>
         <v>6.3660571774707435</v>
       </c>
-      <c r="P31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
+      <c r="R31" s="59">
+        <v>0</v>
+      </c>
+      <c r="S31" s="59">
+        <v>0</v>
+      </c>
+      <c r="T31" s="59">
+        <v>0</v>
+      </c>
+      <c r="U31" s="59">
+        <v>0</v>
+      </c>
+      <c r="V31" s="59">
+        <v>0</v>
+      </c>
+      <c r="W31" s="59">
+        <v>0</v>
+      </c>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="69" t="s">
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ31" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK31" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL31" s="62" t="s">
-        <v>105</v>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ31" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK31" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL31" s="51" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AG32" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="64">
+      <c r="R32" s="59">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="S32" s="59">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="T32" s="59">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="U32" s="59">
+        <v>4.1006000000000008E-2</v>
+      </c>
+      <c r="V32" s="59">
+        <v>4.1006000000000008E-2</v>
+      </c>
+      <c r="W32" s="59">
+        <v>2.8987000000000002E-2</v>
+      </c>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AG32" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="53">
         <v>0</v>
       </c>
-      <c r="AK32" s="64">
+      <c r="AK32" s="53">
         <v>0</v>
       </c>
-      <c r="AL32" s="64">
+      <c r="AL32" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="O33" s="33"/>
-      <c r="P33" s="34">
-        <v>1990</v>
-      </c>
-      <c r="Q33" s="34">
-        <v>1991</v>
-      </c>
-      <c r="R33" s="34">
-        <v>1992</v>
-      </c>
-      <c r="S33" s="34">
-        <v>1993</v>
-      </c>
-      <c r="T33" s="34">
-        <v>1994</v>
-      </c>
-      <c r="U33" s="34">
-        <v>1995</v>
-      </c>
-      <c r="V33" s="34">
-        <v>1996</v>
-      </c>
-      <c r="W33" s="34">
-        <v>1997</v>
-      </c>
-      <c r="X33" s="34">
-        <v>1998</v>
-      </c>
-      <c r="Y33" s="34">
-        <v>1999</v>
-      </c>
-      <c r="Z33" s="34">
-        <v>2000</v>
-      </c>
-      <c r="AA33" s="34">
-        <v>2001</v>
-      </c>
-      <c r="AB33" s="34">
-        <v>2002</v>
-      </c>
-      <c r="AC33" s="34">
-        <v>2003</v>
-      </c>
-      <c r="AD33" s="34">
-        <v>2004</v>
-      </c>
-      <c r="AE33" s="34">
-        <v>2005</v>
-      </c>
-      <c r="AG33" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="60"/>
-      <c r="AJ33" s="64">
+      <c r="R33" s="59">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="S33" s="59">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="T33" s="59">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="U33" s="59">
+        <v>8.0620000000000011E-2</v>
+      </c>
+      <c r="V33" s="59">
+        <v>8.0620000000000011E-2</v>
+      </c>
+      <c r="W33" s="59">
+        <v>5.6990000000000013E-2</v>
+      </c>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AG33" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="53">
         <v>0</v>
       </c>
-      <c r="AK33" s="64">
+      <c r="AK33" s="53">
         <v>0</v>
       </c>
-      <c r="AL33" s="64">
+      <c r="AL33" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="O34" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="P34" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="57">
-        <v>0</v>
-      </c>
-      <c r="R34" s="57">
-        <v>0</v>
-      </c>
-      <c r="S34" s="57">
-        <v>0</v>
-      </c>
-      <c r="T34" s="57">
-        <v>0</v>
-      </c>
-      <c r="U34" s="57">
-        <v>0</v>
-      </c>
-      <c r="V34" s="57">
-        <v>0</v>
-      </c>
-      <c r="W34" s="57">
-        <v>0</v>
-      </c>
-      <c r="X34" s="57">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="57">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="57">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="57">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="57">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="57">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="57">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="60">
+      <c r="R34" s="59">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="S34" s="59">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="T34" s="59">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="U34" s="59">
+        <v>8.2244000000000012E-2</v>
+      </c>
+      <c r="V34" s="59">
+        <v>8.2244000000000012E-2</v>
+      </c>
+      <c r="W34" s="59">
+        <v>5.8138000000000009E-2</v>
+      </c>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AG34" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49">
         <v>0.05</v>
       </c>
-      <c r="AJ34" s="64">
+      <c r="AJ34" s="53">
         <f>AI34*$AJ$36</f>
         <v>11.700000000000001</v>
       </c>
-      <c r="AK34" s="64">
+      <c r="AK34" s="53">
         <f>AK36*AI34</f>
         <v>7.0200000000000005</v>
       </c>
-      <c r="AL34" s="64">
+      <c r="AL34" s="53">
         <f>AL36*AI34</f>
         <v>4.2119999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -15579,73 +13706,48 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="O35" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="P35" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="57">
-        <v>0</v>
-      </c>
-      <c r="R35" s="57">
-        <v>0</v>
-      </c>
-      <c r="S35" s="57">
-        <v>0</v>
-      </c>
-      <c r="T35" s="57">
-        <v>0</v>
-      </c>
-      <c r="U35" s="57">
-        <v>0</v>
-      </c>
-      <c r="V35" s="57">
-        <v>0</v>
-      </c>
-      <c r="W35" s="57">
-        <v>0</v>
-      </c>
-      <c r="X35" s="57">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="57">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="57">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="57">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="57">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="57">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="57">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60">
+      <c r="R35" s="59">
+        <v>0.1056</v>
+      </c>
+      <c r="S35" s="59">
+        <v>0.1056</v>
+      </c>
+      <c r="T35" s="59">
+        <v>0.1056</v>
+      </c>
+      <c r="U35" s="59">
+        <v>6.1248000000000004E-2</v>
+      </c>
+      <c r="V35" s="59">
+        <v>6.1248000000000004E-2</v>
+      </c>
+      <c r="W35" s="59">
+        <v>4.3296000000000001E-2</v>
+      </c>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AG35" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49">
         <v>0.7</v>
       </c>
-      <c r="AJ35" s="64">
+      <c r="AJ35" s="53">
         <f>AI35*$AJ$36</f>
         <v>163.79999999999998</v>
       </c>
-      <c r="AK35" s="64">
+      <c r="AK35" s="53">
         <f>AI35*AK36</f>
         <v>98.28</v>
       </c>
-      <c r="AL35" s="64">
+      <c r="AL35" s="53">
         <f>AL36*AI35</f>
         <v>58.967999999999989</v>
       </c>
@@ -15661,71 +13763,46 @@
       <c r="C36" s="23">
         <v>417311</v>
       </c>
-      <c r="O36" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="P36" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="57">
-        <v>0</v>
-      </c>
-      <c r="R36" s="57">
-        <v>0</v>
-      </c>
-      <c r="S36" s="57">
-        <v>0</v>
-      </c>
-      <c r="T36" s="57">
-        <v>0</v>
-      </c>
-      <c r="U36" s="57">
-        <v>0</v>
-      </c>
-      <c r="V36" s="57">
-        <v>0</v>
-      </c>
-      <c r="W36" s="57">
-        <v>0</v>
-      </c>
-      <c r="X36" s="57">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="57">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="57">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="57">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="57">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="57">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="57">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH36" s="65">
+      <c r="R36" s="59">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="S36" s="59">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="T36" s="59">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="U36" s="59">
+        <v>3.9092000000000009E-2</v>
+      </c>
+      <c r="V36" s="59">
+        <v>3.9092000000000009E-2</v>
+      </c>
+      <c r="W36" s="59">
+        <v>2.7634000000000002E-2</v>
+      </c>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AG36" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH36" s="54">
         <v>1</v>
       </c>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="64">
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="53">
         <v>234</v>
       </c>
-      <c r="AK36" s="64">
+      <c r="AK36" s="53">
         <v>140.4</v>
       </c>
-      <c r="AL36" s="64">
+      <c r="AL36" s="53">
         <v>84.24</v>
       </c>
     </row>
@@ -15739,76 +13816,51 @@
       <c r="C37" s="23">
         <v>361594</v>
       </c>
-      <c r="O37" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P37" s="58">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="Q37" s="58">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="R37" s="58">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="S37" s="58">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="T37" s="58">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="U37" s="58">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="V37" s="58">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="W37" s="58">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="X37" s="58">
-        <v>0.09</v>
-      </c>
-      <c r="Y37" s="58">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="Z37" s="58">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="AA37" s="58">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="AB37" s="58">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AC37" s="58">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="AD37" s="58">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AE37" s="58">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="AG37" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH37" s="65">
+      <c r="R37" s="59">
+        <v>2.7100000000000003E-2</v>
+      </c>
+      <c r="S37" s="59">
+        <v>2.7100000000000003E-2</v>
+      </c>
+      <c r="T37" s="59">
+        <v>2.7100000000000003E-2</v>
+      </c>
+      <c r="U37" s="59">
+        <v>1.5718000000000003E-2</v>
+      </c>
+      <c r="V37" s="59">
+        <v>1.5718000000000003E-2</v>
+      </c>
+      <c r="W37" s="59">
+        <v>1.1111000000000001E-2</v>
+      </c>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AG37" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH37" s="54">
         <v>5</v>
       </c>
-      <c r="AI37" s="60">
-        <f t="shared" ref="AI37:AI47" si="7">EXP(LN(0.5)*AH37/10)</f>
+      <c r="AI37" s="49">
+        <f t="shared" ref="AI37:AI47" si="8">EXP(LN(0.5)*AH37/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AJ37" s="64">
+      <c r="AJ37" s="53">
         <f>$AJ$36*AI37</f>
         <v>165.46298679765212</v>
       </c>
-      <c r="AK37" s="64">
+      <c r="AK37" s="53">
         <f>$AK$36*AI37</f>
         <v>99.27779207859129</v>
       </c>
-      <c r="AL37" s="64">
+      <c r="AL37" s="53">
         <v>59.566675247154762</v>
       </c>
     </row>
@@ -15822,76 +13874,51 @@
       <c r="C38" s="23">
         <v>329333</v>
       </c>
-      <c r="O38" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="P38" s="58">
-        <v>0.191</v>
-      </c>
-      <c r="Q38" s="58">
-        <v>0.19</v>
-      </c>
-      <c r="R38" s="58">
-        <v>0.186</v>
-      </c>
-      <c r="S38" s="58">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="T38" s="58">
-        <v>0.158</v>
-      </c>
-      <c r="U38" s="58">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="V38" s="58">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="W38" s="58">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="X38" s="58">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="Y38" s="58">
-        <v>0.154</v>
-      </c>
-      <c r="Z38" s="58">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="AA38" s="58">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="AB38" s="58">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AC38" s="58">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AD38" s="58">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="AE38" s="58">
-        <v>0.152</v>
-      </c>
-      <c r="AG38" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH38" s="65">
+      <c r="R38" s="59">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="S38" s="59">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="T38" s="59">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="U38" s="59">
+        <v>5.1040000000000009E-3</v>
+      </c>
+      <c r="V38" s="59">
+        <v>5.1040000000000009E-3</v>
+      </c>
+      <c r="W38" s="59">
+        <v>3.6080000000000005E-3</v>
+      </c>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AG38" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH38" s="54">
         <v>10</v>
       </c>
-      <c r="AI38" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI38" s="49">
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="AJ38" s="64">
+      <c r="AJ38" s="53">
         <f>$AJ$36*AI38</f>
         <v>117</v>
       </c>
-      <c r="AK38" s="64">
+      <c r="AK38" s="53">
         <f>$AK$36*AI38</f>
         <v>70.2</v>
       </c>
-      <c r="AL38" s="64">
+      <c r="AL38" s="53">
         <v>42.12</v>
       </c>
     </row>
@@ -15905,76 +13932,51 @@
       <c r="C39" s="23">
         <v>296947</v>
       </c>
-      <c r="O39" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="58">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="Q39" s="58">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="R39" s="58">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="S39" s="58">
-        <v>0.185</v>
-      </c>
-      <c r="T39" s="58">
-        <v>0.184</v>
-      </c>
-      <c r="U39" s="58">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="V39" s="58">
-        <v>0.161</v>
-      </c>
-      <c r="W39" s="58">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="X39" s="58">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="Y39" s="58">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="Z39" s="58">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AA39" s="58">
-        <v>0.13</v>
-      </c>
-      <c r="AB39" s="58">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="AC39" s="58">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="AD39" s="58">
-        <v>0.126</v>
-      </c>
-      <c r="AE39" s="58">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AG39" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH39" s="65">
+      <c r="R39" s="59">
+        <v>0</v>
+      </c>
+      <c r="S39" s="59">
+        <v>0</v>
+      </c>
+      <c r="T39" s="59">
+        <v>0</v>
+      </c>
+      <c r="U39" s="59">
+        <v>0</v>
+      </c>
+      <c r="V39" s="59">
+        <v>0</v>
+      </c>
+      <c r="W39" s="59">
+        <v>0</v>
+      </c>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
+      <c r="AA39" s="65"/>
+      <c r="AB39" s="65"/>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="65"/>
+      <c r="AG39" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH39" s="54">
         <v>15</v>
       </c>
-      <c r="AI39" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI39" s="49">
+        <f t="shared" si="8"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AJ39" s="64">
+      <c r="AJ39" s="53">
         <f>$AJ$36*AI39*0.7</f>
         <v>57.912045379178238</v>
       </c>
-      <c r="AK39" s="64">
+      <c r="AK39" s="53">
         <f>$AK$36*AI39*0.7</f>
         <v>34.747227227506947</v>
       </c>
-      <c r="AL39" s="64">
+      <c r="AL39" s="53">
         <v>20.848336336504165</v>
       </c>
     </row>
@@ -15988,76 +13990,51 @@
       <c r="C40" s="23">
         <v>273204</v>
       </c>
-      <c r="O40" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="P40" s="58">
-        <v>0.219</v>
-      </c>
-      <c r="Q40" s="58">
-        <v>0.192</v>
-      </c>
-      <c r="R40" s="58">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="S40" s="58">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="T40" s="58">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="U40" s="58">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="V40" s="58">
-        <v>0.161</v>
-      </c>
-      <c r="W40" s="58">
-        <v>0.159</v>
-      </c>
-      <c r="X40" s="58">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="Y40" s="58">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Z40" s="58">
-        <v>0.12</v>
-      </c>
-      <c r="AA40" s="58">
-        <v>0.12</v>
-      </c>
-      <c r="AB40" s="58">
-        <v>0.105</v>
-      </c>
-      <c r="AC40" s="58">
-        <v>0.125</v>
-      </c>
-      <c r="AD40" s="58">
-        <v>0.108</v>
-      </c>
-      <c r="AE40" s="58">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="AG40" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH40" s="65">
+      <c r="R40" s="59">
+        <v>0</v>
+      </c>
+      <c r="S40" s="59">
+        <v>0</v>
+      </c>
+      <c r="T40" s="59">
+        <v>0</v>
+      </c>
+      <c r="U40" s="59">
+        <v>0</v>
+      </c>
+      <c r="V40" s="59">
+        <v>0</v>
+      </c>
+      <c r="W40" s="59">
+        <v>0</v>
+      </c>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AG40" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH40" s="54">
         <v>20</v>
       </c>
-      <c r="AI40" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI40" s="49">
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="AJ40" s="64">
+      <c r="AJ40" s="53">
         <f>$AJ$36*AI40*0.7</f>
         <v>40.949999999999996</v>
       </c>
-      <c r="AK40" s="64">
+      <c r="AK40" s="53">
         <f>$AK$36*AI40*0.7</f>
         <v>24.57</v>
       </c>
-      <c r="AL40" s="64">
+      <c r="AL40" s="53">
         <v>14.741999999999997</v>
       </c>
     </row>
@@ -16071,76 +14048,51 @@
       <c r="C41" s="23">
         <v>249396</v>
       </c>
-      <c r="O41" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="P41" s="58">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="Q41" s="58">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="R41" s="58">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="S41" s="58">
-        <v>0.127</v>
-      </c>
-      <c r="T41" s="58">
-        <v>0.114</v>
-      </c>
-      <c r="U41" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="V41" s="58">
-        <v>0.112</v>
-      </c>
-      <c r="W41" s="58">
-        <v>0.115</v>
-      </c>
-      <c r="X41" s="58">
-        <v>0.105</v>
-      </c>
-      <c r="Y41" s="58">
-        <v>0.09</v>
-      </c>
-      <c r="Z41" s="58">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="AA41" s="58">
-        <v>0.09</v>
-      </c>
-      <c r="AB41" s="58">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="AC41" s="58">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="AD41" s="58">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="AE41" s="58">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="AG41" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH41" s="65">
+      <c r="R41" s="62">
+        <v>0</v>
+      </c>
+      <c r="S41" s="62">
+        <v>0</v>
+      </c>
+      <c r="T41" s="62">
+        <v>0</v>
+      </c>
+      <c r="U41" s="62">
+        <v>0</v>
+      </c>
+      <c r="V41" s="62">
+        <v>0</v>
+      </c>
+      <c r="W41" s="62">
+        <v>0</v>
+      </c>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AG41" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH41" s="54">
         <v>25</v>
       </c>
-      <c r="AI41" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI41" s="49">
+        <f t="shared" si="8"/>
         <v>0.17677669529663689</v>
       </c>
-      <c r="AJ41" s="64">
+      <c r="AJ41" s="53">
         <f>$AJ$36*AI41*0.5</f>
         <v>20.682873349706515</v>
       </c>
-      <c r="AK41" s="64">
+      <c r="AK41" s="53">
         <f>$AK$36*AI41*0.5</f>
         <v>12.409724009823911</v>
       </c>
-      <c r="AL41" s="64">
+      <c r="AL41" s="53">
         <v>7.4458344058943453</v>
       </c>
     </row>
@@ -16154,76 +14106,51 @@
       <c r="C42" s="23">
         <v>211839</v>
       </c>
-      <c r="O42" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P42" s="58">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="Q42" s="58">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R42" s="58">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="S42" s="58">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="T42" s="58">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="U42" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="V42" s="58">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="W42" s="58">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="X42" s="58">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="Y42" s="58">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="Z42" s="58">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="AA42" s="58">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB42" s="58">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AC42" s="58">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="AD42" s="58">
-        <v>3.1E-2</v>
-      </c>
-      <c r="AE42" s="58">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="AG42" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH42" s="65">
+      <c r="R42" s="62">
+        <v>0</v>
+      </c>
+      <c r="S42" s="62">
+        <v>0</v>
+      </c>
+      <c r="T42" s="62">
+        <v>0</v>
+      </c>
+      <c r="U42" s="62">
+        <v>0</v>
+      </c>
+      <c r="V42" s="62">
+        <v>0</v>
+      </c>
+      <c r="W42" s="62">
+        <v>0</v>
+      </c>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AG42" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH42" s="54">
         <v>30</v>
       </c>
-      <c r="AI42" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI42" s="49">
+        <f t="shared" si="8"/>
         <v>0.12500000000000003</v>
       </c>
-      <c r="AJ42" s="64">
-        <f t="shared" ref="AJ42:AJ47" si="8">$AJ$36*AI42</f>
+      <c r="AJ42" s="53">
+        <f t="shared" ref="AJ42:AJ47" si="9">$AJ$36*AI42</f>
         <v>29.250000000000007</v>
       </c>
-      <c r="AK42" s="64">
-        <f t="shared" ref="AK42:AK47" si="9">$AK$36*AI42</f>
+      <c r="AK42" s="53">
+        <f t="shared" ref="AK42:AK47" si="10">$AK$36*AI42</f>
         <v>17.550000000000004</v>
       </c>
-      <c r="AL42" s="64">
+      <c r="AL42" s="53">
         <v>10.530000000000001</v>
       </c>
     </row>
@@ -16237,76 +14164,51 @@
       <c r="C43" s="23">
         <v>176470</v>
       </c>
-      <c r="O43" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P43" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="Q43" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="R43" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="S43" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="T43" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="U43" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="V43" s="58">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="W43" s="58">
-        <v>0.01</v>
-      </c>
-      <c r="X43" s="58">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Y43" s="58">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Z43" s="58">
-        <v>1.2E-2</v>
-      </c>
-      <c r="AA43" s="58">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AB43" s="58">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AC43" s="58">
-        <v>2E-3</v>
-      </c>
-      <c r="AD43" s="58">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AE43" s="58">
-        <v>2E-3</v>
-      </c>
-      <c r="AG43" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH43" s="65">
+      <c r="R43" s="62">
+        <v>0</v>
+      </c>
+      <c r="S43" s="62">
+        <v>0</v>
+      </c>
+      <c r="T43" s="62">
+        <v>0</v>
+      </c>
+      <c r="U43" s="62">
+        <v>0</v>
+      </c>
+      <c r="V43" s="62">
+        <v>0</v>
+      </c>
+      <c r="W43" s="62">
+        <v>0</v>
+      </c>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="65"/>
+      <c r="AB43" s="65"/>
+      <c r="AC43" s="65"/>
+      <c r="AD43" s="65"/>
+      <c r="AE43" s="65"/>
+      <c r="AG43" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH43" s="54">
         <v>35</v>
       </c>
-      <c r="AI43" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI43" s="49">
+        <f t="shared" si="8"/>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="AJ43" s="64">
-        <f t="shared" si="8"/>
+      <c r="AJ43" s="53">
+        <f t="shared" si="9"/>
         <v>20.682873349706515</v>
       </c>
-      <c r="AK43" s="64">
-        <f t="shared" si="9"/>
+      <c r="AK43" s="53">
+        <f t="shared" si="10"/>
         <v>12.409724009823911</v>
       </c>
-      <c r="AL43" s="64">
+      <c r="AL43" s="53">
         <v>7.4458344058943453</v>
       </c>
     </row>
@@ -16320,76 +14222,51 @@
       <c r="C44" s="23">
         <v>143351</v>
       </c>
-      <c r="O44" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="P44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="Q44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="R44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="S44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="T44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="U44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="V44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="W44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="X44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="Y44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="Z44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="AA44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="AB44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="AC44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="AD44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="AE44" s="59">
-        <v>1.711E-2</v>
-      </c>
-      <c r="AG44" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH44" s="65">
+      <c r="R44" s="62">
+        <v>0</v>
+      </c>
+      <c r="S44" s="62">
+        <v>0</v>
+      </c>
+      <c r="T44" s="62">
+        <v>0</v>
+      </c>
+      <c r="U44" s="62">
+        <v>0</v>
+      </c>
+      <c r="V44" s="62">
+        <v>0</v>
+      </c>
+      <c r="W44" s="62">
+        <v>0</v>
+      </c>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AG44" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH44" s="54">
         <v>40</v>
       </c>
-      <c r="AI44" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI44" s="49">
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
-      <c r="AJ44" s="64">
-        <f t="shared" si="8"/>
+      <c r="AJ44" s="53">
+        <f t="shared" si="9"/>
         <v>14.625</v>
       </c>
-      <c r="AK44" s="64">
-        <f t="shared" si="9"/>
+      <c r="AK44" s="53">
+        <f t="shared" si="10"/>
         <v>8.7750000000000004</v>
       </c>
-      <c r="AL44" s="64">
+      <c r="AL44" s="53">
         <v>5.2649999999999997</v>
       </c>
     </row>
@@ -16403,76 +14280,33 @@
       <c r="C45" s="23">
         <v>123441</v>
       </c>
-      <c r="O45" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="P45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="Q45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="R45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="S45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="T45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="U45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="V45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="W45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="X45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="Y45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="Z45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="AA45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="AB45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="AC45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="AD45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="AE45" s="59">
-        <v>2.0809999999999999E-2</v>
-      </c>
-      <c r="AG45" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH45" s="65">
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AG45" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH45" s="54">
         <v>45</v>
       </c>
-      <c r="AI45" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI45" s="49">
+        <f t="shared" si="8"/>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="AJ45" s="64">
-        <f t="shared" si="8"/>
+      <c r="AJ45" s="53">
+        <f t="shared" si="9"/>
         <v>10.341436674853258</v>
       </c>
-      <c r="AK45" s="64">
-        <f t="shared" si="9"/>
+      <c r="AK45" s="53">
+        <f t="shared" si="10"/>
         <v>6.2048620049119556</v>
       </c>
-      <c r="AL45" s="64">
+      <c r="AL45" s="53">
         <v>3.7229172029471727</v>
       </c>
     </row>
@@ -16486,190 +14320,138 @@
       <c r="C46" s="23">
         <v>98355</v>
       </c>
-      <c r="O46" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="P46" s="34">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q46" s="34">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R46" s="34">
-        <v>4.3</v>
-      </c>
-      <c r="S46" s="34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="T46" s="34">
-        <v>3.9</v>
-      </c>
-      <c r="U46" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="V46" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="W46" s="34">
-        <v>3.9</v>
-      </c>
-      <c r="X46" s="34">
-        <v>3.3</v>
-      </c>
-      <c r="Y46" s="34">
-        <v>3.3</v>
-      </c>
-      <c r="Z46" s="34">
-        <v>3</v>
-      </c>
-      <c r="AA46" s="34">
-        <v>3</v>
-      </c>
-      <c r="AB46" s="34">
-        <v>2.9</v>
-      </c>
-      <c r="AC46" s="34">
-        <v>2.9</v>
-      </c>
-      <c r="AD46" s="34">
-        <v>2.9</v>
-      </c>
-      <c r="AE46" s="34">
-        <v>2.8</v>
-      </c>
-      <c r="AG46" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH46" s="65">
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="63"/>
+      <c r="AB46" s="63"/>
+      <c r="AC46" s="63"/>
+      <c r="AD46" s="63"/>
+      <c r="AE46" s="63"/>
+      <c r="AG46" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH46" s="54">
         <v>50</v>
       </c>
-      <c r="AI46" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI46" s="49">
+        <f t="shared" si="8"/>
         <v>3.125E-2</v>
       </c>
-      <c r="AJ46" s="64">
-        <f t="shared" si="8"/>
+      <c r="AJ46" s="53">
+        <f t="shared" si="9"/>
         <v>7.3125</v>
       </c>
-      <c r="AK46" s="64">
-        <f t="shared" si="9"/>
+      <c r="AK46" s="53">
+        <f t="shared" si="10"/>
         <v>4.3875000000000002</v>
       </c>
-      <c r="AL46" s="64">
+      <c r="AL46" s="53">
         <v>2.6324999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="50">
+      <c r="B47" s="42">
         <v>-70487</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="42">
         <v>82330</v>
       </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="30"/>
-      <c r="AG47" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH47" s="65">
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="60"/>
+      <c r="AA47" s="66"/>
+      <c r="AB47" s="66"/>
+      <c r="AC47" s="66"/>
+      <c r="AD47" s="66"/>
+      <c r="AE47" s="66"/>
+      <c r="AG47" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH47" s="54">
         <v>55</v>
       </c>
-      <c r="AI47" s="60">
-        <f t="shared" si="7"/>
+      <c r="AI47" s="49">
+        <f t="shared" si="8"/>
         <v>2.2097086912079619E-2</v>
       </c>
-      <c r="AJ47" s="64">
-        <f t="shared" si="8"/>
+      <c r="AJ47" s="53">
+        <f t="shared" si="9"/>
         <v>5.1707183374266306</v>
       </c>
-      <c r="AK47" s="64">
-        <f t="shared" si="9"/>
+      <c r="AK47" s="53">
+        <f t="shared" si="10"/>
         <v>3.1024310024559787</v>
       </c>
-      <c r="AL47" s="64">
+      <c r="AL47" s="53">
         <v>1.861458601473587</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="51">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A48" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="43">
         <v>-50094.736842105267</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="43">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
-      <c r="O48" s="12" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="51">
+      <c r="A49" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="43">
         <v>-35803.827751196171</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="43">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="51">
+      <c r="A50" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="43">
         <v>-24102.551834130783</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="43">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
-      <c r="O50" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="51">
+      <c r="A51" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="43">
         <v>-14240.510366826158</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="43">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O53" s="29"/>
+      <c r="O53" s="28"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -16742,51 +14524,51 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="T2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="82">
+      <c r="B3" s="87">
         <v>1996</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87">
         <v>2001</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87">
         <v>2011</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>59</v>
       </c>
       <c r="T3">
         <v>1985</v>
@@ -16806,7 +14588,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>0</v>
@@ -16815,7 +14597,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>0</v>
@@ -16824,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L4">
         <v>1985</v>
@@ -16857,7 +14639,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="16">
         <v>1526597</v>
@@ -16917,7 +14699,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="16">
         <v>2292625</v>
@@ -16977,7 +14759,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="16">
         <v>139799</v>
@@ -17037,7 +14819,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="16">
         <f>SUM(B5:B7)</f>
@@ -17084,7 +14866,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="S9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T9">
         <v>2015</v>
@@ -17095,7 +14877,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="20">
         <f>SUM(B5:B6)</f>
@@ -17138,7 +14920,7 @@
         <v>240724.45454545456</v>
       </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T10">
         <v>2016</v>
@@ -17149,7 +14931,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T11">
         <v>2017</v>
@@ -17160,10 +14942,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T12">
         <v>2018</v>
@@ -17174,10 +14956,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T13">
         <v>2019</v>
@@ -17188,7 +14970,7 @@
     </row>
     <row r="16" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <f>LN(J10/Demographics!D18)/((2011-1985)*4)</f>
@@ -17197,7 +14979,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <f>LN(J10/Demographics!D18)/((2011-1985))</f>
@@ -17206,15 +14988,15 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.35">
@@ -17225,10 +15007,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.35">
@@ -17319,10 +15101,10 @@
         <v>0.223</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.35">
@@ -17405,7 +15187,7 @@
         <v>0.318</v>
       </c>
       <c r="H54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.35">

--- a/Config/PopData.xlsx
+++ b/Config/PopData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="103">
   <si>
     <t>Male</t>
   </si>
@@ -488,12 +488,18 @@
   <si>
     <t xml:space="preserve">Age </t>
   </si>
+  <si>
+    <t>P Stay in same group</t>
+  </si>
+  <si>
+    <t>P(to HR|M,15-34)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +732,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -926,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1065,30 +1077,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1320,25 +1308,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1366,18 +1389,18 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="32">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="32">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1460,16 +1483,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1493,12 +1509,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1529,6 +1541,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1541,37 +1559,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1587,6 +1607,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1702,7 +1734,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2398,7 +2429,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11375,8 +11405,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11421,35 +11451,35 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="O1" s="84" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="O1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="P1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="Q1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="78"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="89"/>
       <c r="Y1" s="3" t="s">
         <v>8</v>
       </c>
@@ -11495,7 +11525,7 @@
       <c r="C2" s="23">
         <v>417311</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
@@ -11514,16 +11544,16 @@
       <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="79" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="79" t="s">
+      <c r="T2" s="78" t="s">
         <v>41</v>
       </c>
       <c r="U2" s="8" t="s">
@@ -11551,23 +11581,23 @@
       <c r="AD2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" s="34" t="s">
         <v>11</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AI2" s="50">
-        <f>52*4.5</f>
-        <v>234</v>
-      </c>
-      <c r="AJ2" s="50">
+      <c r="AI2" s="45">
+        <f>52*3</f>
+        <v>156</v>
+      </c>
+      <c r="AJ2" s="45">
         <f>AI2*0.6</f>
-        <v>140.4</v>
-      </c>
-      <c r="AK2" s="50">
+        <v>93.6</v>
+      </c>
+      <c r="AK2" s="45">
         <f>AJ2*0.6</f>
-        <v>84.24</v>
+        <v>56.16</v>
       </c>
       <c r="AM2" t="s">
         <v>21</v>
@@ -11575,10 +11605,10 @@
       <c r="AN2" s="25">
         <v>1985</v>
       </c>
-      <c r="AO2" s="50">
+      <c r="AO2" s="45">
         <v>0.3</v>
       </c>
-      <c r="AP2" s="50">
+      <c r="AP2" s="45">
         <v>0.3</v>
       </c>
     </row>
@@ -11614,7 +11644,7 @@
         <f>1-J3-K3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="86"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="80"/>
       <c r="Q3" s="80"/>
       <c r="R3" s="80"/>
@@ -11630,52 +11660,52 @@
       <c r="Y3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="23">
-        <f>10^-5</f>
+      <c r="Z3" s="71">
+        <f t="shared" ref="Z3:AE4" si="0">10^-5</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA3" s="23">
-        <f t="shared" ref="AA3:AE4" si="0">10^-5</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AB3" s="23">
+      <c r="AA3" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AB3" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AC3" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AD3" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AE3" s="71">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AH3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AI3" s="50">
-        <f>52*4.5</f>
-        <v>234</v>
-      </c>
-      <c r="AJ3" s="50">
+      <c r="AI3" s="45">
+        <f>52*3</f>
+        <v>156</v>
+      </c>
+      <c r="AJ3" s="45">
         <f>AI3*0.6</f>
-        <v>140.4</v>
-      </c>
-      <c r="AK3" s="50">
+        <v>93.6</v>
+      </c>
+      <c r="AK3" s="45">
         <f>AJ3*0.6</f>
-        <v>84.24</v>
+        <v>56.16</v>
       </c>
       <c r="AN3" s="25">
-        <v>1988</v>
-      </c>
-      <c r="AO3" s="50">
+        <v>1990</v>
+      </c>
+      <c r="AO3" s="45">
         <v>0.4</v>
       </c>
-      <c r="AP3" s="50">
+      <c r="AP3" s="45">
         <v>0.4</v>
       </c>
     </row>
@@ -11744,41 +11774,41 @@
       <c r="Y4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="23">
-        <f>10^-5</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AA4" s="23">
+      <c r="Z4" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB4" s="23">
+      <c r="AA4" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AB4" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AC4" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AE4" s="23">
+      <c r="AD4" s="71">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AE4" s="71">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AM4" t="s">
         <v>27</v>
       </c>
       <c r="AN4" s="25">
-        <v>2003</v>
-      </c>
-      <c r="AO4" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="AP4" s="50">
-        <v>0.3</v>
+        <v>2000</v>
+      </c>
+      <c r="AO4" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="AP4" s="45">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -11844,22 +11874,22 @@
       <c r="Y5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="71">
         <v>1.2E-2</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="71">
         <v>0.12</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="71">
         <v>1.2</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="71">
         <v>1.2E-2</v>
       </c>
-      <c r="AD5" s="34">
+      <c r="AD5" s="72">
         <v>0.12</v>
       </c>
-      <c r="AE5" s="36">
+      <c r="AE5" s="73">
         <v>1.2</v>
       </c>
     </row>
@@ -11924,22 +11954,22 @@
       <c r="Y6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="71">
         <v>0.66369047619047616</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="71">
         <v>2.553903345724907</v>
       </c>
-      <c r="AB6" s="23">
+      <c r="AB6" s="71">
         <v>6.9636363636363638</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AC6" s="71">
         <v>0.66959798994974873</v>
       </c>
-      <c r="AD6" s="34">
+      <c r="AD6" s="72">
         <v>2.2142857142857144</v>
       </c>
-      <c r="AE6" s="37">
+      <c r="AE6" s="74">
         <v>6.5</v>
       </c>
       <c r="AN6" t="s">
@@ -12007,22 +12037,22 @@
       <c r="Y7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7" s="71">
         <v>0.70326409495548958</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AA7" s="71">
         <v>2.5474683544303796</v>
       </c>
-      <c r="AB7" s="23">
+      <c r="AB7" s="71">
         <v>7.6721311475409832</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC7" s="71">
         <v>0.79487179487179482</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="72">
         <v>2.25</v>
       </c>
-      <c r="AE7" s="37">
+      <c r="AE7" s="74">
         <v>10</v>
       </c>
     </row>
@@ -12087,34 +12117,34 @@
       <c r="Y8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="71">
         <v>0.77027027027027029</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="71">
         <v>2.564245810055866</v>
       </c>
-      <c r="AB8" s="23">
+      <c r="AB8" s="71">
         <v>6.9705882352941178</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="71">
         <v>0.80509304603330067</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8" s="72">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE8" s="37">
+      <c r="AE8" s="74">
         <v>5.333333333333333</v>
       </c>
-      <c r="AG8" s="51" t="s">
+      <c r="AG8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="75" t="s">
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
     </row>
     <row r="9" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
@@ -12178,38 +12208,38 @@
       <c r="Y9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9" s="71">
         <v>0.7710280373831776</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9" s="71">
         <v>2.4793388429752068</v>
       </c>
-      <c r="AB9" s="23">
+      <c r="AB9" s="71">
         <v>5.8421052631578947</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="71">
         <v>0.75512405609492983</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9" s="72">
         <v>2.0625</v>
       </c>
-      <c r="AE9" s="37">
+      <c r="AE9" s="74">
         <v>1</v>
       </c>
-      <c r="AG9" s="51" t="s">
+      <c r="AG9" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="51" t="s">
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="AJ9" s="51" t="s">
+      <c r="AJ9" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AK9" s="51" t="s">
+      <c r="AK9" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="AL9" s="51" t="s">
+      <c r="AL9" s="46" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12274,36 +12304,36 @@
       <c r="Y10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10" s="71">
         <v>0.77927927927927931</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AA10" s="71">
         <v>2.406779661016949</v>
       </c>
-      <c r="AB10" s="23">
+      <c r="AB10" s="71">
         <v>6.2222222222222223</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10" s="71">
         <v>0.75529411764705878</v>
       </c>
-      <c r="AD10" s="34">
+      <c r="AD10" s="72">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE10" s="37">
+      <c r="AE10" s="74">
         <v>9</v>
       </c>
-      <c r="AG10" s="52" t="s">
+      <c r="AG10" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="53">
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="48">
         <v>0</v>
       </c>
-      <c r="AK10" s="53">
+      <c r="AK10" s="48">
         <v>0</v>
       </c>
-      <c r="AL10" s="53">
+      <c r="AL10" s="48">
         <v>0</v>
       </c>
     </row>
@@ -12370,36 +12400,36 @@
       <c r="Y11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="71">
         <v>0.84188034188034189</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AA11" s="71">
         <v>2.4166666666666665</v>
       </c>
-      <c r="AB11" s="23">
+      <c r="AB11" s="71">
         <v>7.75</v>
       </c>
-      <c r="AC11" s="23">
+      <c r="AC11" s="71">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11" s="72">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE11" s="37">
+      <c r="AE11" s="74">
         <v>1</v>
       </c>
-      <c r="AG11" s="52" t="s">
+      <c r="AG11" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="53">
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="48">
         <v>0</v>
       </c>
-      <c r="AK11" s="53">
+      <c r="AK11" s="48">
         <v>0</v>
       </c>
-      <c r="AL11" s="53">
+      <c r="AL11" s="48">
         <v>0</v>
       </c>
     </row>
@@ -12465,49 +12495,52 @@
       <c r="Y12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="Z12" s="71">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA12" s="23">
+      <c r="AA12" s="71">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB12" s="23">
+      <c r="AB12" s="71">
         <v>1</v>
       </c>
-      <c r="AC12" s="23">
+      <c r="AC12" s="71">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD12" s="34">
+      <c r="AD12" s="72">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE12" s="37">
+      <c r="AE12" s="74">
         <v>1</v>
       </c>
-      <c r="AG12" s="52" t="s">
+      <c r="AG12" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="54">
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44">
         <v>0.05</v>
       </c>
-      <c r="AJ12" s="55">
-        <v>11.700000000000001</v>
-      </c>
-      <c r="AK12" s="55">
-        <v>7.0200000000000005</v>
-      </c>
-      <c r="AL12" s="55">
-        <v>4.2119999999999997</v>
+      <c r="AJ12" s="50">
+        <f>AI12*AJ14</f>
+        <v>1.5600000000000003</v>
+      </c>
+      <c r="AK12" s="50">
+        <f>AK14*$AI$12</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="AL12" s="50">
+        <f>AL14*$AI$12</f>
+        <v>0.56159999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="39">
         <v>70487</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="39">
         <v>82330</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -12562,53 +12595,53 @@
       <c r="Y13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Z13" s="23">
+      <c r="Z13" s="71">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA13" s="23">
+      <c r="AA13" s="71">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB13" s="23">
+      <c r="AB13" s="71">
         <v>1</v>
       </c>
-      <c r="AC13" s="23">
+      <c r="AC13" s="71">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AD13" s="72">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE13" s="37">
+      <c r="AE13" s="74">
         <v>1</v>
       </c>
-      <c r="AG13" s="52" t="s">
+      <c r="AG13" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="54">
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44">
         <v>0.1</v>
       </c>
-      <c r="AJ13" s="55">
+      <c r="AJ13" s="50">
         <f>AJ15*$AI$13</f>
-        <v>23.400000000000002</v>
-      </c>
-      <c r="AK13" s="55">
-        <f>AK15*$AI$13</f>
-        <v>14.040000000000001</v>
-      </c>
-      <c r="AL13" s="55">
-        <f>AL15*$AI$13</f>
-        <v>8.4239999999999995</v>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="AK13" s="50">
+        <f t="shared" ref="AK13:AL13" si="3">AK15*$AI$13</f>
+        <v>9.36</v>
+      </c>
+      <c r="AL13" s="50">
+        <f t="shared" si="3"/>
+        <v>5.6159999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="40">
         <f>314094/6.27</f>
         <v>50094.736842105267</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="40">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
@@ -12664,76 +12697,79 @@
       <c r="Y14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z14" s="23">
+      <c r="Z14" s="71">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA14" s="23">
+      <c r="AA14" s="71">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB14" s="23">
+      <c r="AB14" s="71">
         <v>1</v>
       </c>
-      <c r="AC14" s="23">
+      <c r="AC14" s="71">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD14" s="34">
+      <c r="AD14" s="72">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE14" s="37">
+      <c r="AE14" s="74">
         <v>1</v>
       </c>
-      <c r="AG14" s="52" t="s">
+      <c r="AG14" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="AJ14" s="53">
-        <f>AJ15*AI14</f>
-        <v>163.79999999999998</v>
-      </c>
-      <c r="AK14" s="53">
-        <f>AK15*AI14</f>
-        <v>98.28</v>
-      </c>
-      <c r="AL14" s="53">
-        <f>AL15*AI14</f>
-        <v>58.967999999999989</v>
+      <c r="AH14" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="44">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="AJ14" s="48">
+        <f>AJ15*$AI$14</f>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="AK14" s="48">
+        <f t="shared" ref="AK14:AL14" si="4">AK15*$AI$14</f>
+        <v>18.72</v>
+      </c>
+      <c r="AL14" s="48">
+        <f t="shared" si="4"/>
+        <v>11.231999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="40">
         <f>224490/6.27</f>
         <v>35803.827751196171</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="40">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="37">
         <v>0.85074626865671632</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="37">
         <f t="shared" si="2"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="37">
         <v>1E-3</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="37">
         <v>0.99568965517241381</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="37">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="37">
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -12763,256 +12799,258 @@
       <c r="W15" s="23">
         <v>0</v>
       </c>
-      <c r="Y15" s="39" t="s">
+      <c r="Y15" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="Z15" s="46">
+      <c r="Z15" s="75">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA15" s="46">
+      <c r="AA15" s="75">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB15" s="46">
+      <c r="AB15" s="75">
         <v>1</v>
       </c>
-      <c r="AC15" s="46">
+      <c r="AC15" s="75">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD15" s="47">
+      <c r="AD15" s="76">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE15" s="48">
+      <c r="AE15" s="77">
         <v>1</v>
       </c>
-      <c r="AG15" s="52" t="s">
+      <c r="AG15" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AH15" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="55">
-        <v>234</v>
-      </c>
-      <c r="AK15" s="55">
-        <v>140.4</v>
-      </c>
-      <c r="AL15" s="55">
-        <v>84.24</v>
+      <c r="AH15" s="49">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="50">
+        <f>AI2</f>
+        <v>156</v>
+      </c>
+      <c r="AK15" s="50">
+        <f>AJ2</f>
+        <v>93.6</v>
+      </c>
+      <c r="AL15" s="50">
+        <f>AK2</f>
+        <v>56.16</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="40">
         <f>151123/6.27</f>
         <v>24102.551834130783</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="40">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="37">
         <v>0.85074626865671632</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="37">
         <f t="shared" si="2"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="37">
         <v>1E-3</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="37">
         <v>0.99568965517241381</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="37">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="37">
         <v>1.4367816091954023E-3</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="43">
         <v>2.6650488106048104E-2</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="43">
         <v>1.5759592316689931E-2</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="43">
         <v>0</v>
       </c>
-      <c r="S16" s="46">
+      <c r="S16" s="43">
         <v>0</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="43">
         <v>0</v>
       </c>
-      <c r="U16" s="46">
+      <c r="U16" s="43">
         <v>0</v>
       </c>
-      <c r="V16" s="46">
+      <c r="V16" s="43">
         <v>0</v>
       </c>
-      <c r="W16" s="46">
+      <c r="W16" s="43">
         <v>0</v>
       </c>
-      <c r="Y16" s="39" t="s">
+      <c r="Y16" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="Z16" s="46">
+      <c r="Z16" s="75">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA16" s="46">
+      <c r="AA16" s="75">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB16" s="46">
+      <c r="AB16" s="75">
         <v>1</v>
       </c>
-      <c r="AC16" s="46">
+      <c r="AC16" s="75">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD16" s="47">
+      <c r="AD16" s="76">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE16" s="48">
+      <c r="AE16" s="77">
         <v>1</v>
       </c>
-      <c r="AG16" s="52" t="s">
+      <c r="AG16" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AH16" s="54">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="49">
-        <f t="shared" ref="AI16:AI25" si="3">EXP(LN(0.5)*AH16/10)</f>
+      <c r="AH16" s="49">
+        <v>10</v>
+      </c>
+      <c r="AI16" s="44">
+        <f>EXP(LN(0.5)*AH15/10)</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="AJ16" s="55">
-        <f t="shared" ref="AJ16:AJ25" si="4">$AJ$15*AI16</f>
-        <v>165.46298679765212</v>
-      </c>
-      <c r="AK16" s="55">
-        <f t="shared" ref="AK16:AK25" si="5">$AK$15*AI16</f>
-        <v>99.27779207859129</v>
-      </c>
-      <c r="AL16" s="55">
-        <f t="shared" ref="AL16:AL25" si="6">$AL$15*AI16</f>
-        <v>59.566675247154762</v>
+      <c r="AJ16" s="50">
+        <f>$AJ$15*AI16</f>
+        <v>110.30865786510142</v>
+      </c>
+      <c r="AK16" s="50">
+        <f>$AK$15*AI16</f>
+        <v>66.185194719060846</v>
+      </c>
+      <c r="AL16" s="50">
+        <f>$AL$15*AI16</f>
+        <v>39.711116831436506</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="40">
         <f>89288/6.27</f>
         <v>14240.510366826158</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="40">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="37">
         <v>0.85074626865671632</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="37">
         <f t="shared" si="2"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="37">
         <v>1E-3</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="37">
         <v>0.99568965517241381</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="37">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="37">
         <v>1.4367816091954023E-3</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="43">
         <v>3.6763608595780588E-2</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="43">
         <v>2.2837523063216215E-2</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="43">
         <v>0</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17" s="43">
         <v>0</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="43">
         <v>0</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17" s="43">
         <v>0</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V17" s="43">
         <v>0</v>
       </c>
-      <c r="W17" s="46">
+      <c r="W17" s="43">
         <v>0</v>
       </c>
-      <c r="Y17" s="39" t="s">
+      <c r="Y17" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="46">
+      <c r="Z17" s="75">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA17" s="46">
+      <c r="AA17" s="75">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB17" s="46">
+      <c r="AB17" s="75">
         <v>1</v>
       </c>
-      <c r="AC17" s="46">
+      <c r="AC17" s="75">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD17" s="47">
+      <c r="AD17" s="76">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE17" s="48">
+      <c r="AE17" s="77">
         <v>1</v>
       </c>
-      <c r="AG17" s="52" t="s">
+      <c r="AG17" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AH17" s="54">
-        <v>10</v>
-      </c>
-      <c r="AI17" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH17" s="49">
+        <v>15</v>
+      </c>
+      <c r="AI17" s="44">
+        <f>EXP(LN(0.5)*AH16/10)</f>
         <v>0.5</v>
       </c>
-      <c r="AJ17" s="55">
-        <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
-      <c r="AK17" s="55">
-        <f t="shared" si="5"/>
-        <v>70.2</v>
-      </c>
-      <c r="AL17" s="55">
-        <f t="shared" si="6"/>
-        <v>42.12</v>
+      <c r="AJ17" s="50">
+        <f t="shared" ref="AJ17:AJ25" si="5">$AJ$15*AI17</f>
+        <v>78</v>
+      </c>
+      <c r="AK17" s="50">
+        <f t="shared" ref="AK17:AK25" si="6">$AK$15*AI17</f>
+        <v>46.8</v>
+      </c>
+      <c r="AL17" s="50">
+        <f t="shared" ref="AL17:AL25" si="7">$AL$15*AI17</f>
+        <v>28.08</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="20">
@@ -13027,228 +13065,262 @@
         <f>SUM(B18:C18)</f>
         <v>5703373.2934609242</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="37">
         <v>0.85074626865671632</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="37">
         <f t="shared" si="2"/>
         <v>0.14825373134328401</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="37">
         <v>1E-3</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="37">
         <v>0.99568965517241381</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="37">
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="37">
         <v>1.4367816091954023E-3</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="43">
         <v>5.1790400883394136E-2</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="43">
         <v>3.3336893194863555E-2</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="43">
         <v>0</v>
       </c>
-      <c r="S18" s="46">
+      <c r="S18" s="43">
         <v>0</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="43">
         <v>0</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="43">
         <v>0</v>
       </c>
-      <c r="V18" s="46">
+      <c r="V18" s="43">
         <v>0</v>
       </c>
-      <c r="W18" s="46">
+      <c r="W18" s="43">
         <v>0</v>
       </c>
       <c r="X18" s="29"/>
-      <c r="Y18" s="39" t="s">
+      <c r="Y18" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="Z18" s="46">
+      <c r="Z18" s="75">
         <v>0.7192982456140351</v>
       </c>
-      <c r="AA18" s="46">
+      <c r="AA18" s="75">
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB18" s="46">
+      <c r="AB18" s="75">
         <v>1</v>
       </c>
-      <c r="AC18" s="46">
+      <c r="AC18" s="75">
         <v>0.68708971553610498</v>
       </c>
-      <c r="AD18" s="47">
+      <c r="AD18" s="76">
         <v>2.2666666666666666</v>
       </c>
-      <c r="AE18" s="48">
+      <c r="AE18" s="77">
         <v>1</v>
       </c>
-      <c r="AG18" s="52" t="s">
+      <c r="AG18" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AH18" s="54">
-        <v>15</v>
-      </c>
-      <c r="AI18" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH18" s="49">
+        <v>20</v>
+      </c>
+      <c r="AI18" s="44">
+        <f>EXP(LN(0.5)*AH17/10)</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AJ18" s="55">
-        <f t="shared" si="4"/>
-        <v>82.731493398826061</v>
-      </c>
-      <c r="AK18" s="55">
+      <c r="AJ18" s="50">
         <f t="shared" si="5"/>
-        <v>49.638896039295645</v>
-      </c>
-      <c r="AL18" s="55">
+        <v>55.154328932550712</v>
+      </c>
+      <c r="AK18" s="50">
         <f t="shared" si="6"/>
-        <v>29.783337623577381</v>
+        <v>33.092597359530423</v>
+      </c>
+      <c r="AL18" s="50">
+        <f t="shared" si="7"/>
+        <v>19.855558415718253</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="43">
         <v>8.3577387695122712E-2</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="43">
         <v>6.1722846856347699E-2</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="43">
         <v>0</v>
       </c>
-      <c r="S19" s="46">
+      <c r="S19" s="43">
         <v>0</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T19" s="43">
         <v>0</v>
       </c>
-      <c r="U19" s="46">
+      <c r="U19" s="43">
         <v>0</v>
       </c>
-      <c r="V19" s="46">
+      <c r="V19" s="43">
         <v>0</v>
       </c>
-      <c r="W19" s="46">
+      <c r="W19" s="43">
         <v>0</v>
       </c>
-      <c r="AG19" s="52" t="s">
+      <c r="AG19" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="AH19" s="54">
-        <v>20</v>
-      </c>
-      <c r="AI19" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH19" s="49">
+        <v>25</v>
+      </c>
+      <c r="AI19" s="44">
+        <f>EXP(LN(0.5)*AH18/10)</f>
         <v>0.25</v>
       </c>
-      <c r="AJ19" s="55">
-        <f t="shared" si="4"/>
-        <v>58.5</v>
-      </c>
-      <c r="AK19" s="55">
+      <c r="AJ19" s="50">
         <f t="shared" si="5"/>
-        <v>35.1</v>
-      </c>
-      <c r="AL19" s="55">
+        <v>39</v>
+      </c>
+      <c r="AK19" s="50">
         <f t="shared" si="6"/>
-        <v>21.06</v>
+        <v>23.4</v>
+      </c>
+      <c r="AL19" s="50">
+        <f t="shared" si="7"/>
+        <v>14.04</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="AG20" s="52" t="s">
+      <c r="F20" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20">
+        <f>PRODUCT(G3:G18)</f>
+        <v>1.4676838219218388E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:L20" si="8">PRODUCT(H3:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>0.79671076610996394</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AH20" s="54">
-        <v>25</v>
-      </c>
-      <c r="AI20" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH20" s="49">
+        <v>30</v>
+      </c>
+      <c r="AI20" s="44">
+        <f>EXP(LN(0.5)*AH19/10)</f>
         <v>0.17677669529663689</v>
       </c>
-      <c r="AJ20" s="55">
-        <f t="shared" si="4"/>
-        <v>41.36574669941303</v>
-      </c>
-      <c r="AK20" s="55">
+      <c r="AJ20" s="50">
         <f t="shared" si="5"/>
-        <v>24.819448019647822</v>
-      </c>
-      <c r="AL20" s="55">
+        <v>27.577164466275356</v>
+      </c>
+      <c r="AK20" s="50">
         <f t="shared" si="6"/>
-        <v>14.891668811788691</v>
+        <v>16.546298679765211</v>
+      </c>
+      <c r="AL20" s="50">
+        <f t="shared" si="7"/>
+        <v>9.9277792078591265</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F21" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21">
+        <f>1-((1-(H6+I6))*(1-(H7+I7))*(1-(H8+I8)*(1-(H9+I9))))</f>
+        <v>0.83084071366534329</v>
+      </c>
       <c r="R21">
         <f>5*SUM(R7:R13)</f>
         <v>5.604000000000001</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21:W21" si="7">5*SUM(S7:S13)</f>
+        <f t="shared" ref="S21:W21" si="9">5*SUM(S7:S13)</f>
         <v>5.604000000000001</v>
       </c>
       <c r="T21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.604000000000001</v>
       </c>
       <c r="U21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="V21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="W21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2976400000000003</v>
       </c>
       <c r="Y21" t="s">
         <v>76</v>
       </c>
-      <c r="AG21" s="52" t="s">
+      <c r="AG21" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AH21" s="54">
-        <v>30</v>
-      </c>
-      <c r="AI21" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH21" s="49">
+        <v>35</v>
+      </c>
+      <c r="AI21" s="44">
+        <f>EXP(LN(0.5)*AH20/10)</f>
         <v>0.12500000000000003</v>
       </c>
-      <c r="AJ21" s="55">
-        <f t="shared" si="4"/>
-        <v>29.250000000000007</v>
-      </c>
-      <c r="AK21" s="55">
+      <c r="AJ21" s="50">
         <f t="shared" si="5"/>
-        <v>17.550000000000004</v>
-      </c>
-      <c r="AL21" s="55">
+        <v>19.500000000000004</v>
+      </c>
+      <c r="AK21" s="50">
         <f t="shared" si="6"/>
-        <v>10.530000000000001</v>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="AL21" s="50">
+        <f t="shared" si="7"/>
+        <v>7.0200000000000014</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
@@ -13257,27 +13329,27 @@
       <c r="Y22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AG22" s="52" t="s">
+      <c r="AG22" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AH22" s="54">
-        <v>35</v>
-      </c>
-      <c r="AI22" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH22" s="49">
+        <v>40</v>
+      </c>
+      <c r="AI22" s="44">
+        <f>EXP(LN(0.5)*AH21/10)</f>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="AJ22" s="55">
-        <f t="shared" si="4"/>
-        <v>20.682873349706515</v>
-      </c>
-      <c r="AK22" s="55">
+      <c r="AJ22" s="50">
         <f t="shared" si="5"/>
-        <v>12.409724009823911</v>
-      </c>
-      <c r="AL22" s="55">
+        <v>13.788582233137678</v>
+      </c>
+      <c r="AK22" s="50">
         <f t="shared" si="6"/>
-        <v>7.4458344058943453</v>
+        <v>8.2731493398826057</v>
+      </c>
+      <c r="AL22" s="50">
+        <f t="shared" si="7"/>
+        <v>4.9638896039295632</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="31" x14ac:dyDescent="0.35">
@@ -13285,7 +13357,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="35"/>
       <c r="P23" s="31" t="s">
         <v>72</v>
       </c>
@@ -13304,27 +13376,27 @@
       <c r="Y23" t="s">
         <v>29</v>
       </c>
-      <c r="AG23" s="52" t="s">
+      <c r="AG23" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AH23" s="54">
-        <v>40</v>
-      </c>
-      <c r="AI23" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH23" s="49">
+        <v>45</v>
+      </c>
+      <c r="AI23" s="44">
+        <f>EXP(LN(0.5)*AH22/10)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AJ23" s="55">
-        <f t="shared" si="4"/>
-        <v>14.625</v>
-      </c>
-      <c r="AK23" s="55">
+      <c r="AJ23" s="50">
         <f t="shared" si="5"/>
-        <v>8.7750000000000004</v>
-      </c>
-      <c r="AL23" s="55">
+        <v>9.75</v>
+      </c>
+      <c r="AK23" s="50">
         <f t="shared" si="6"/>
-        <v>5.2649999999999997</v>
+        <v>5.85</v>
+      </c>
+      <c r="AL23" s="50">
+        <f t="shared" si="7"/>
+        <v>3.51</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.35">
@@ -13353,164 +13425,164 @@
         <f>W7/$R$7</f>
         <v>0.41000000000000003</v>
       </c>
-      <c r="AG24" s="52" t="s">
+      <c r="AG24" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AH24" s="54">
-        <v>45</v>
-      </c>
-      <c r="AI24" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH24" s="49">
+        <v>50</v>
+      </c>
+      <c r="AI24" s="44">
+        <f>EXP(LN(0.5)*AH23/10)</f>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="AJ24" s="55">
-        <f t="shared" si="4"/>
-        <v>10.341436674853258</v>
-      </c>
-      <c r="AK24" s="55">
+      <c r="AJ24" s="50">
         <f t="shared" si="5"/>
-        <v>6.2048620049119556</v>
-      </c>
-      <c r="AL24" s="55">
+        <v>6.894291116568839</v>
+      </c>
+      <c r="AK24" s="50">
         <f t="shared" si="6"/>
-        <v>3.7229172029471727</v>
+        <v>4.1365746699413029</v>
+      </c>
+      <c r="AL24" s="50">
+        <f t="shared" si="7"/>
+        <v>2.4819448019647816</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="AG25" s="52" t="s">
+      <c r="AG25" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="AH25" s="54">
-        <v>50</v>
-      </c>
-      <c r="AI25" s="49">
-        <f t="shared" si="3"/>
+      <c r="AH25" s="49">
+        <v>55</v>
+      </c>
+      <c r="AI25" s="44">
+        <f>EXP(LN(0.5)*AH24/10)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="AJ25" s="55">
-        <f t="shared" si="4"/>
-        <v>7.3125</v>
-      </c>
-      <c r="AK25" s="55">
+      <c r="AJ25" s="50">
         <f t="shared" si="5"/>
-        <v>4.3875000000000002</v>
-      </c>
-      <c r="AL25" s="55">
+        <v>4.875</v>
+      </c>
+      <c r="AK25" s="50">
         <f t="shared" si="6"/>
-        <v>2.6324999999999998</v>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="AL25" s="50">
+        <f t="shared" si="7"/>
+        <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L26" s="14"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
     </row>
     <row r="27" spans="1:38" ht="61.5" x14ac:dyDescent="0.35">
-      <c r="R27" s="67" t="s">
+      <c r="R27" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="68" t="s">
+      <c r="S27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="68" t="s">
+      <c r="T27" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="69" t="s">
+      <c r="U27" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="V27" s="69" t="s">
+      <c r="V27" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="W27" s="70" t="s">
+      <c r="W27" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
     </row>
     <row r="28" spans="1:38" ht="31" x14ac:dyDescent="0.35">
-      <c r="R28" s="71"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="73" t="s">
+      <c r="R28" s="66"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="V28" s="73" t="s">
+      <c r="V28" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="W28" s="74"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
+      <c r="W28" s="69"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
     </row>
     <row r="29" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R29" s="59">
+      <c r="R29" s="54">
         <v>0</v>
       </c>
-      <c r="S29" s="59">
+      <c r="S29" s="54">
         <v>0</v>
       </c>
-      <c r="T29" s="59">
+      <c r="T29" s="54">
         <v>0</v>
       </c>
-      <c r="U29" s="59">
+      <c r="U29" s="54">
         <v>0</v>
       </c>
-      <c r="V29" s="59">
+      <c r="V29" s="54">
         <v>0</v>
       </c>
-      <c r="W29" s="59">
+      <c r="W29" s="54">
         <v>0</v>
       </c>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
     </row>
     <row r="30" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R30" s="59">
+      <c r="R30" s="54">
         <v>0</v>
       </c>
-      <c r="S30" s="59">
+      <c r="S30" s="54">
         <v>0</v>
       </c>
-      <c r="T30" s="59">
+      <c r="T30" s="54">
         <v>0</v>
       </c>
-      <c r="U30" s="59">
+      <c r="U30" s="54">
         <v>0</v>
       </c>
-      <c r="V30" s="59">
+      <c r="V30" s="54">
         <v>0</v>
       </c>
-      <c r="W30" s="59">
+      <c r="W30" s="54">
         <v>0</v>
       </c>
-      <c r="AG30" s="58" t="s">
+      <c r="AG30" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="75" t="s">
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="AK30" s="75"/>
-      <c r="AL30" s="75"/>
+      <c r="AK30" s="86"/>
+      <c r="AL30" s="86"/>
     </row>
     <row r="31" spans="1:38" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B31">
@@ -13521,22 +13593,22 @@
         <f>17593051/2763571</f>
         <v>6.3660571774707435</v>
       </c>
-      <c r="R31" s="59">
+      <c r="R31" s="54">
         <v>0</v>
       </c>
-      <c r="S31" s="59">
+      <c r="S31" s="54">
         <v>0</v>
       </c>
-      <c r="T31" s="59">
+      <c r="T31" s="54">
         <v>0</v>
       </c>
-      <c r="U31" s="59">
+      <c r="U31" s="54">
         <v>0</v>
       </c>
-      <c r="V31" s="59">
+      <c r="V31" s="54">
         <v>0</v>
       </c>
-      <c r="W31" s="59">
+      <c r="W31" s="54">
         <v>0</v>
       </c>
       <c r="X31" s="29"/>
@@ -13548,40 +13620,40 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="29"/>
-      <c r="AG31" s="58" t="s">
+      <c r="AG31" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="51" t="s">
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="AJ31" s="51" t="s">
+      <c r="AJ31" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AK31" s="51" t="s">
+      <c r="AK31" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="AL31" s="51" t="s">
+      <c r="AL31" s="46" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R32" s="59">
+      <c r="R32" s="54">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="S32" s="59">
+      <c r="S32" s="54">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="T32" s="59">
+      <c r="T32" s="54">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="U32" s="59">
+      <c r="U32" s="54">
         <v>4.1006000000000008E-2</v>
       </c>
-      <c r="V32" s="59">
+      <c r="V32" s="54">
         <v>4.1006000000000008E-2</v>
       </c>
-      <c r="W32" s="59">
+      <c r="W32" s="54">
         <v>2.8987000000000002E-2</v>
       </c>
       <c r="X32" s="30"/>
@@ -13592,108 +13664,108 @@
       <c r="AC32" s="30"/>
       <c r="AD32" s="30"/>
       <c r="AE32" s="30"/>
-      <c r="AG32" s="52" t="s">
+      <c r="AG32" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="53">
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="48">
         <v>0</v>
       </c>
-      <c r="AK32" s="53">
+      <c r="AK32" s="48">
         <v>0</v>
       </c>
-      <c r="AL32" s="53">
+      <c r="AL32" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R33" s="59">
+      <c r="R33" s="54">
         <v>0.13900000000000001</v>
       </c>
-      <c r="S33" s="59">
+      <c r="S33" s="54">
         <v>0.13900000000000001</v>
       </c>
-      <c r="T33" s="59">
+      <c r="T33" s="54">
         <v>0.13900000000000001</v>
       </c>
-      <c r="U33" s="59">
+      <c r="U33" s="54">
         <v>8.0620000000000011E-2</v>
       </c>
-      <c r="V33" s="59">
+      <c r="V33" s="54">
         <v>8.0620000000000011E-2</v>
       </c>
-      <c r="W33" s="59">
+      <c r="W33" s="54">
         <v>5.6990000000000013E-2</v>
       </c>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AG33" s="52" t="s">
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="58"/>
+      <c r="AG33" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="53">
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="48">
         <v>0</v>
       </c>
-      <c r="AK33" s="53">
+      <c r="AK33" s="48">
         <v>0</v>
       </c>
-      <c r="AL33" s="53">
+      <c r="AL33" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="R34" s="59">
+      <c r="R34" s="54">
         <v>0.14180000000000001</v>
       </c>
-      <c r="S34" s="59">
+      <c r="S34" s="54">
         <v>0.14180000000000001</v>
       </c>
-      <c r="T34" s="59">
+      <c r="T34" s="54">
         <v>0.14180000000000001</v>
       </c>
-      <c r="U34" s="59">
+      <c r="U34" s="54">
         <v>8.2244000000000012E-2</v>
       </c>
-      <c r="V34" s="59">
+      <c r="V34" s="54">
         <v>8.2244000000000012E-2</v>
       </c>
-      <c r="W34" s="59">
+      <c r="W34" s="54">
         <v>5.8138000000000009E-2</v>
       </c>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AG34" s="52" t="s">
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AG34" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49">
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44">
         <v>0.05</v>
       </c>
-      <c r="AJ34" s="53">
-        <f>AI34*$AJ$36</f>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="AK34" s="53">
-        <f>AK36*AI34</f>
-        <v>7.0200000000000005</v>
-      </c>
-      <c r="AL34" s="53">
-        <f>AL36*AI34</f>
-        <v>4.2119999999999997</v>
+      <c r="AJ34" s="48">
+        <f>$AI$34*AJ37</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="AK34" s="48">
+        <f t="shared" ref="AK34:AL34" si="10">$AI$34*AK37</f>
+        <v>4.68</v>
+      </c>
+      <c r="AL34" s="48">
+        <f t="shared" si="10"/>
+        <v>2.8079999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
@@ -13706,50 +13778,50 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="R35" s="59">
+      <c r="R35" s="54">
         <v>0.1056</v>
       </c>
-      <c r="S35" s="59">
+      <c r="S35" s="54">
         <v>0.1056</v>
       </c>
-      <c r="T35" s="59">
+      <c r="T35" s="54">
         <v>0.1056</v>
       </c>
-      <c r="U35" s="59">
+      <c r="U35" s="54">
         <v>6.1248000000000004E-2</v>
       </c>
-      <c r="V35" s="59">
+      <c r="V35" s="54">
         <v>6.1248000000000004E-2</v>
       </c>
-      <c r="W35" s="59">
+      <c r="W35" s="54">
         <v>4.3296000000000001E-2</v>
       </c>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AG35" s="52" t="s">
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AG35" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="AJ35" s="53">
-        <f>AI35*$AJ$36</f>
-        <v>163.79999999999998</v>
-      </c>
-      <c r="AK35" s="53">
-        <f>AI35*AK36</f>
-        <v>98.28</v>
-      </c>
-      <c r="AL35" s="53">
-        <f>AL36*AI35</f>
-        <v>58.967999999999989</v>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="AJ35" s="50">
+        <f>AJ37*$AI$35</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="AK35" s="50">
+        <f t="shared" ref="AK35:AL35" si="11">AK37*$AI$35</f>
+        <v>9.36</v>
+      </c>
+      <c r="AL35" s="50">
+        <f t="shared" si="11"/>
+        <v>5.6159999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -13763,47 +13835,53 @@
       <c r="C36" s="23">
         <v>417311</v>
       </c>
-      <c r="R36" s="59">
+      <c r="R36" s="54">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="S36" s="59">
+      <c r="S36" s="54">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="T36" s="59">
+      <c r="T36" s="54">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="U36" s="59">
+      <c r="U36" s="54">
         <v>3.9092000000000009E-2</v>
       </c>
-      <c r="V36" s="59">
+      <c r="V36" s="54">
         <v>3.9092000000000009E-2</v>
       </c>
-      <c r="W36" s="59">
+      <c r="W36" s="54">
         <v>2.7634000000000002E-2</v>
       </c>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AG36" s="52" t="s">
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AG36" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AH36" s="54">
+      <c r="AH36" s="49">
         <v>1</v>
       </c>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="53">
-        <v>234</v>
-      </c>
-      <c r="AK36" s="53">
-        <v>140.4</v>
-      </c>
-      <c r="AL36" s="53">
-        <v>84.24</v>
+      <c r="AI36" s="44">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="AJ36" s="48">
+        <f>AJ37*$AI$36</f>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="AK36" s="48">
+        <f t="shared" ref="AK36:AL36" si="12">AK37*$AI$36</f>
+        <v>18.72</v>
+      </c>
+      <c r="AL36" s="48">
+        <f t="shared" si="12"/>
+        <v>11.231999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -13816,52 +13894,49 @@
       <c r="C37" s="23">
         <v>361594</v>
       </c>
-      <c r="R37" s="59">
+      <c r="R37" s="54">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="S37" s="59">
+      <c r="S37" s="54">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="T37" s="59">
+      <c r="T37" s="54">
         <v>2.7100000000000003E-2</v>
       </c>
-      <c r="U37" s="59">
+      <c r="U37" s="54">
         <v>1.5718000000000003E-2</v>
       </c>
-      <c r="V37" s="59">
+      <c r="V37" s="54">
         <v>1.5718000000000003E-2</v>
       </c>
-      <c r="W37" s="59">
+      <c r="W37" s="54">
         <v>1.1111000000000001E-2</v>
       </c>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65"/>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="65"/>
-      <c r="AG37" s="52" t="s">
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AG37" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AH37" s="54">
+      <c r="AH37" s="49">
         <v>5</v>
       </c>
-      <c r="AI37" s="49">
-        <f t="shared" ref="AI37:AI47" si="8">EXP(LN(0.5)*AH37/10)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="AJ37" s="53">
-        <f>$AJ$36*AI37</f>
-        <v>165.46298679765212</v>
-      </c>
-      <c r="AK37" s="53">
-        <f>$AK$36*AI37</f>
-        <v>99.27779207859129</v>
-      </c>
-      <c r="AL37" s="53">
-        <v>59.566675247154762</v>
+      <c r="AJ37" s="48">
+        <f>AI3</f>
+        <v>156</v>
+      </c>
+      <c r="AK37" s="48">
+        <f>AJ3</f>
+        <v>93.6</v>
+      </c>
+      <c r="AL37" s="48">
+        <f>AK3</f>
+        <v>56.16</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -13874,52 +13949,53 @@
       <c r="C38" s="23">
         <v>329333</v>
       </c>
-      <c r="R38" s="59">
+      <c r="R38" s="54">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="S38" s="59">
+      <c r="S38" s="54">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="T38" s="59">
+      <c r="T38" s="54">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="U38" s="59">
+      <c r="U38" s="54">
         <v>5.1040000000000009E-3</v>
       </c>
-      <c r="V38" s="59">
+      <c r="V38" s="54">
         <v>5.1040000000000009E-3</v>
       </c>
-      <c r="W38" s="59">
+      <c r="W38" s="54">
         <v>3.6080000000000005E-3</v>
       </c>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="65"/>
-      <c r="AG38" s="52" t="s">
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AG38" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AH38" s="54">
+      <c r="AH38" s="49">
         <v>10</v>
       </c>
-      <c r="AI38" s="49">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="AJ38" s="53">
-        <f>$AJ$36*AI38</f>
-        <v>117</v>
-      </c>
-      <c r="AK38" s="53">
-        <f>$AK$36*AI38</f>
-        <v>70.2</v>
-      </c>
-      <c r="AL38" s="53">
-        <v>42.12</v>
+      <c r="AI38" s="44">
+        <f>EXP(LN(0.5)*AH37/10)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AJ38" s="48">
+        <f>AJ$37*$AI$38</f>
+        <v>110.30865786510142</v>
+      </c>
+      <c r="AK38" s="48">
+        <f>AK$37*$AI$38</f>
+        <v>66.185194719060846</v>
+      </c>
+      <c r="AL38" s="48">
+        <f>AL$37*$AI$38</f>
+        <v>39.711116831436506</v>
       </c>
     </row>
     <row r="39" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -13932,52 +14008,53 @@
       <c r="C39" s="23">
         <v>296947</v>
       </c>
-      <c r="R39" s="59">
+      <c r="R39" s="54">
         <v>0</v>
       </c>
-      <c r="S39" s="59">
+      <c r="S39" s="54">
         <v>0</v>
       </c>
-      <c r="T39" s="59">
+      <c r="T39" s="54">
         <v>0</v>
       </c>
-      <c r="U39" s="59">
+      <c r="U39" s="54">
         <v>0</v>
       </c>
-      <c r="V39" s="59">
+      <c r="V39" s="54">
         <v>0</v>
       </c>
-      <c r="W39" s="59">
+      <c r="W39" s="54">
         <v>0</v>
       </c>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="65"/>
-      <c r="AA39" s="65"/>
-      <c r="AB39" s="65"/>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="65"/>
-      <c r="AE39" s="65"/>
-      <c r="AG39" s="52" t="s">
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AG39" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AH39" s="54">
+      <c r="AH39" s="49">
         <v>15</v>
       </c>
-      <c r="AI39" s="49">
-        <f t="shared" si="8"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="AJ39" s="53">
-        <f>$AJ$36*AI39*0.7</f>
-        <v>57.912045379178238</v>
-      </c>
-      <c r="AK39" s="53">
-        <f>$AK$36*AI39*0.7</f>
-        <v>34.747227227506947</v>
-      </c>
-      <c r="AL39" s="53">
-        <v>20.848336336504165</v>
+      <c r="AI39" s="44">
+        <f>EXP(LN(0.5)*AH38/10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ39" s="48">
+        <f>$AJ$37*AI39</f>
+        <v>78</v>
+      </c>
+      <c r="AK39" s="48">
+        <f>$AK$37*AI39</f>
+        <v>46.8</v>
+      </c>
+      <c r="AL39" s="48">
+        <f>$AL$37*AI39</f>
+        <v>28.08</v>
       </c>
     </row>
     <row r="40" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -13990,52 +14067,53 @@
       <c r="C40" s="23">
         <v>273204</v>
       </c>
-      <c r="R40" s="59">
+      <c r="R40" s="54">
         <v>0</v>
       </c>
-      <c r="S40" s="59">
+      <c r="S40" s="54">
         <v>0</v>
       </c>
-      <c r="T40" s="59">
+      <c r="T40" s="54">
         <v>0</v>
       </c>
-      <c r="U40" s="59">
+      <c r="U40" s="54">
         <v>0</v>
       </c>
-      <c r="V40" s="59">
+      <c r="V40" s="54">
         <v>0</v>
       </c>
-      <c r="W40" s="59">
+      <c r="W40" s="54">
         <v>0</v>
       </c>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="65"/>
-      <c r="AB40" s="65"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="65"/>
-      <c r="AG40" s="52" t="s">
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AG40" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AH40" s="54">
+      <c r="AH40" s="49">
         <v>20</v>
       </c>
-      <c r="AI40" s="49">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="AJ40" s="53">
-        <f>$AJ$36*AI40*0.7</f>
-        <v>40.949999999999996</v>
-      </c>
-      <c r="AK40" s="53">
-        <f>$AK$36*AI40*0.7</f>
-        <v>24.57</v>
-      </c>
-      <c r="AL40" s="53">
-        <v>14.741999999999997</v>
+      <c r="AI40" s="44">
+        <f>EXP(LN(0.5)*AH39/10)</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AJ40" s="48">
+        <f>$AJ$37*AI40</f>
+        <v>55.154328932550712</v>
+      </c>
+      <c r="AK40" s="48">
+        <f>$AK$37*AI40</f>
+        <v>33.092597359530423</v>
+      </c>
+      <c r="AL40" s="48">
+        <f>$AL$37*AI40</f>
+        <v>19.855558415718253</v>
       </c>
     </row>
     <row r="41" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14048,52 +14126,53 @@
       <c r="C41" s="23">
         <v>249396</v>
       </c>
-      <c r="R41" s="62">
+      <c r="R41" s="57">
         <v>0</v>
       </c>
-      <c r="S41" s="62">
+      <c r="S41" s="57">
         <v>0</v>
       </c>
-      <c r="T41" s="62">
+      <c r="T41" s="57">
         <v>0</v>
       </c>
-      <c r="U41" s="62">
+      <c r="U41" s="57">
         <v>0</v>
       </c>
-      <c r="V41" s="62">
+      <c r="V41" s="57">
         <v>0</v>
       </c>
-      <c r="W41" s="62">
+      <c r="W41" s="57">
         <v>0</v>
       </c>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="65"/>
-      <c r="AG41" s="52" t="s">
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AG41" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="AH41" s="54">
+      <c r="AH41" s="49">
         <v>25</v>
       </c>
-      <c r="AI41" s="49">
-        <f t="shared" si="8"/>
-        <v>0.17677669529663689</v>
-      </c>
-      <c r="AJ41" s="53">
-        <f>$AJ$36*AI41*0.5</f>
-        <v>20.682873349706515</v>
-      </c>
-      <c r="AK41" s="53">
-        <f>$AK$36*AI41*0.5</f>
-        <v>12.409724009823911</v>
-      </c>
-      <c r="AL41" s="53">
-        <v>7.4458344058943453</v>
+      <c r="AI41" s="44">
+        <f>EXP(LN(0.5)*AH40/10)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AJ41" s="48">
+        <f>$AJ$37*AI41</f>
+        <v>39</v>
+      </c>
+      <c r="AK41" s="48">
+        <f>$AK$37*AI41</f>
+        <v>23.4</v>
+      </c>
+      <c r="AL41" s="48">
+        <f>$AL$37*AI41</f>
+        <v>14.04</v>
       </c>
     </row>
     <row r="42" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14106,52 +14185,53 @@
       <c r="C42" s="23">
         <v>211839</v>
       </c>
-      <c r="R42" s="62">
+      <c r="R42" s="57">
         <v>0</v>
       </c>
-      <c r="S42" s="62">
+      <c r="S42" s="57">
         <v>0</v>
       </c>
-      <c r="T42" s="62">
+      <c r="T42" s="57">
         <v>0</v>
       </c>
-      <c r="U42" s="62">
+      <c r="U42" s="57">
         <v>0</v>
       </c>
-      <c r="V42" s="62">
+      <c r="V42" s="57">
         <v>0</v>
       </c>
-      <c r="W42" s="62">
+      <c r="W42" s="57">
         <v>0</v>
       </c>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="65"/>
-      <c r="AG42" s="52" t="s">
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AG42" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AH42" s="54">
+      <c r="AH42" s="49">
         <v>30</v>
       </c>
-      <c r="AI42" s="49">
-        <f t="shared" si="8"/>
-        <v>0.12500000000000003</v>
-      </c>
-      <c r="AJ42" s="53">
-        <f t="shared" ref="AJ42:AJ47" si="9">$AJ$36*AI42</f>
-        <v>29.250000000000007</v>
-      </c>
-      <c r="AK42" s="53">
-        <f t="shared" ref="AK42:AK47" si="10">$AK$36*AI42</f>
-        <v>17.550000000000004</v>
-      </c>
-      <c r="AL42" s="53">
-        <v>10.530000000000001</v>
+      <c r="AI42" s="44">
+        <f>EXP(LN(0.5)*AH41/10)</f>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="AJ42" s="48">
+        <f>$AJ$37*AI42</f>
+        <v>27.577164466275356</v>
+      </c>
+      <c r="AK42" s="48">
+        <f>$AK$37*AI42</f>
+        <v>16.546298679765211</v>
+      </c>
+      <c r="AL42" s="48">
+        <f>$AL$37*AI42</f>
+        <v>9.9277792078591265</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14164,52 +14244,53 @@
       <c r="C43" s="23">
         <v>176470</v>
       </c>
-      <c r="R43" s="62">
+      <c r="R43" s="57">
         <v>0</v>
       </c>
-      <c r="S43" s="62">
+      <c r="S43" s="57">
         <v>0</v>
       </c>
-      <c r="T43" s="62">
+      <c r="T43" s="57">
         <v>0</v>
       </c>
-      <c r="U43" s="62">
+      <c r="U43" s="57">
         <v>0</v>
       </c>
-      <c r="V43" s="62">
+      <c r="V43" s="57">
         <v>0</v>
       </c>
-      <c r="W43" s="62">
+      <c r="W43" s="57">
         <v>0</v>
       </c>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="65"/>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="65"/>
-      <c r="AG43" s="52" t="s">
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="60"/>
+      <c r="AE43" s="60"/>
+      <c r="AG43" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AH43" s="54">
+      <c r="AH43" s="49">
         <v>35</v>
       </c>
-      <c r="AI43" s="49">
-        <f t="shared" si="8"/>
-        <v>8.8388347648318447E-2</v>
-      </c>
-      <c r="AJ43" s="53">
-        <f t="shared" si="9"/>
-        <v>20.682873349706515</v>
-      </c>
-      <c r="AK43" s="53">
-        <f t="shared" si="10"/>
-        <v>12.409724009823911</v>
-      </c>
-      <c r="AL43" s="53">
-        <v>7.4458344058943453</v>
+      <c r="AI43" s="44">
+        <f>EXP(LN(0.5)*AH42/10)</f>
+        <v>0.12500000000000003</v>
+      </c>
+      <c r="AJ43" s="48">
+        <f>$AJ$37*AI43</f>
+        <v>19.500000000000004</v>
+      </c>
+      <c r="AK43" s="48">
+        <f>$AK$37*AI43</f>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="AL43" s="48">
+        <f>$AL$37*AI43</f>
+        <v>7.0200000000000014</v>
       </c>
     </row>
     <row r="44" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14222,52 +14303,53 @@
       <c r="C44" s="23">
         <v>143351</v>
       </c>
-      <c r="R44" s="62">
+      <c r="R44" s="57">
         <v>0</v>
       </c>
-      <c r="S44" s="62">
+      <c r="S44" s="57">
         <v>0</v>
       </c>
-      <c r="T44" s="62">
+      <c r="T44" s="57">
         <v>0</v>
       </c>
-      <c r="U44" s="62">
+      <c r="U44" s="57">
         <v>0</v>
       </c>
-      <c r="V44" s="62">
+      <c r="V44" s="57">
         <v>0</v>
       </c>
-      <c r="W44" s="62">
+      <c r="W44" s="57">
         <v>0</v>
       </c>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="65"/>
-      <c r="AG44" s="52" t="s">
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="60"/>
+      <c r="AE44" s="60"/>
+      <c r="AG44" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AH44" s="54">
+      <c r="AH44" s="49">
         <v>40</v>
       </c>
-      <c r="AI44" s="49">
-        <f t="shared" si="8"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AJ44" s="53">
-        <f t="shared" si="9"/>
-        <v>14.625</v>
-      </c>
-      <c r="AK44" s="53">
-        <f t="shared" si="10"/>
-        <v>8.7750000000000004</v>
-      </c>
-      <c r="AL44" s="53">
-        <v>5.2649999999999997</v>
+      <c r="AI44" s="44">
+        <f>EXP(LN(0.5)*AH43/10)</f>
+        <v>8.8388347648318447E-2</v>
+      </c>
+      <c r="AJ44" s="48">
+        <f>$AJ$37*AI44</f>
+        <v>13.788582233137678</v>
+      </c>
+      <c r="AK44" s="48">
+        <f>$AK$37*AI44</f>
+        <v>8.2731493398826057</v>
+      </c>
+      <c r="AL44" s="48">
+        <f>$AL$37*AI44</f>
+        <v>4.9638896039295632</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14280,34 +14362,35 @@
       <c r="C45" s="23">
         <v>123441</v>
       </c>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="65"/>
-      <c r="AG45" s="52" t="s">
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AG45" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AH45" s="54">
+      <c r="AH45" s="49">
         <v>45</v>
       </c>
-      <c r="AI45" s="49">
-        <f t="shared" si="8"/>
-        <v>4.4194173824159223E-2</v>
-      </c>
-      <c r="AJ45" s="53">
-        <f t="shared" si="9"/>
-        <v>10.341436674853258</v>
-      </c>
-      <c r="AK45" s="53">
-        <f t="shared" si="10"/>
-        <v>6.2048620049119556</v>
-      </c>
-      <c r="AL45" s="53">
-        <v>3.7229172029471727</v>
+      <c r="AI45" s="44">
+        <f>EXP(LN(0.5)*AH44/10)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AJ45" s="48">
+        <f>$AJ$37*AI45</f>
+        <v>9.75</v>
+      </c>
+      <c r="AK45" s="48">
+        <f>$AK$37*AI45</f>
+        <v>5.85</v>
+      </c>
+      <c r="AL45" s="48">
+        <f>$AL$37*AI45</f>
+        <v>3.51</v>
       </c>
     </row>
     <row r="46" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -14320,120 +14403,147 @@
       <c r="C46" s="23">
         <v>98355</v>
       </c>
-      <c r="X46" s="63"/>
-      <c r="Y46" s="63"/>
-      <c r="Z46" s="63"/>
-      <c r="AA46" s="63"/>
-      <c r="AB46" s="63"/>
-      <c r="AC46" s="63"/>
-      <c r="AD46" s="63"/>
-      <c r="AE46" s="63"/>
-      <c r="AG46" s="52" t="s">
+      <c r="R46">
+        <f>5*SUM(R29:R44)</f>
+        <v>2.8020000000000005</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ref="S46:W46" si="13">5*SUM(S29:S44)</f>
+        <v>2.8020000000000005</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="13"/>
+        <v>2.8020000000000005</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="13"/>
+        <v>1.6251600000000002</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="13"/>
+        <v>1.6251600000000002</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="13"/>
+        <v>1.1488200000000002</v>
+      </c>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AG46" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="AH46" s="54">
+      <c r="AH46" s="49">
         <v>50</v>
       </c>
-      <c r="AI46" s="49">
-        <f t="shared" si="8"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="AJ46" s="53">
-        <f t="shared" si="9"/>
-        <v>7.3125</v>
-      </c>
-      <c r="AK46" s="53">
-        <f t="shared" si="10"/>
-        <v>4.3875000000000002</v>
-      </c>
-      <c r="AL46" s="53">
-        <v>2.6324999999999998</v>
+      <c r="AI46" s="44">
+        <f>EXP(LN(0.5)*AH45/10)</f>
+        <v>4.4194173824159223E-2</v>
+      </c>
+      <c r="AJ46" s="48">
+        <f>$AJ$37*AI46</f>
+        <v>6.894291116568839</v>
+      </c>
+      <c r="AK46" s="48">
+        <f>$AK$37*AI46</f>
+        <v>4.1365746699413029</v>
+      </c>
+      <c r="AL46" s="48">
+        <f>$AL$37*AI46</f>
+        <v>2.4819448019647816</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="39">
         <v>-70487</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="39">
         <v>82330</v>
       </c>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="60"/>
-      <c r="AA47" s="66"/>
-      <c r="AB47" s="66"/>
-      <c r="AC47" s="66"/>
-      <c r="AD47" s="66"/>
-      <c r="AE47" s="66"/>
-      <c r="AG47" s="52" t="s">
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="61"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AG47" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="AH47" s="54">
+      <c r="AH47" s="49">
         <v>55</v>
       </c>
-      <c r="AI47" s="49">
-        <f t="shared" si="8"/>
-        <v>2.2097086912079619E-2</v>
-      </c>
-      <c r="AJ47" s="53">
-        <f t="shared" si="9"/>
-        <v>5.1707183374266306</v>
-      </c>
-      <c r="AK47" s="53">
-        <f t="shared" si="10"/>
-        <v>3.1024310024559787</v>
-      </c>
-      <c r="AL47" s="53">
-        <v>1.861458601473587</v>
+      <c r="AI47" s="44">
+        <f>EXP(LN(0.5)*AH46/10)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="AJ47" s="48">
+        <f>$AJ$37*AI47</f>
+        <v>4.875</v>
+      </c>
+      <c r="AK47" s="48">
+        <f>$AK$37*AI47</f>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="AL47" s="48">
+        <f>$AL$37*AI47</f>
+        <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="40">
         <v>-50094.736842105267</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="40">
         <f>366793/6.36</f>
         <v>57671.85534591195</v>
       </c>
+      <c r="AI48" s="44"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="40">
         <v>-35803.827751196171</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="40">
         <f>282911/6.36</f>
         <v>44482.861635220121</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="40">
         <v>-24102.551834130783</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="40">
         <f>215469/6.36</f>
         <v>33878.773584905655</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="40">
         <v>-14240.510366826158</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="40">
         <f>144901/6.36</f>
         <v>22783.176100628931</v>
       </c>
@@ -14484,18 +14594,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="P1:P3"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14537,21 +14647,21 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="87">
+      <c r="B3" s="90">
         <v>1996</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90">
         <v>2001</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87">
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90">
         <v>2011</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
       <c r="L3" t="s">
         <v>52</v>
       </c>

--- a/Config/PopData.xlsx
+++ b/Config/PopData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>Male</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>10 – 14</t>
-  </si>
-  <si>
-    <t>[22]</t>
   </si>
   <si>
     <t>After</t>
@@ -1585,13 +1582,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1607,18 +1616,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1734,6 +1731,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2429,6 +2427,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2556,6 +2555,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3244,6 +3244,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3366,6 +3367,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3880,6 +3882,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11405,8 +11408,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11451,35 +11454,35 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82" t="s">
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="O1" s="83" t="s">
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="O1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="P1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="87" t="s">
+      <c r="R1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="89"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="81"/>
       <c r="Y1" s="3" t="s">
         <v>8</v>
       </c>
@@ -11494,7 +11497,7 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="2"/>
       <c r="AH1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>9</v>
@@ -11525,7 +11528,7 @@
       <c r="C2" s="23">
         <v>417311</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
@@ -11544,17 +11547,17 @@
       <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="78" t="s">
+      <c r="O2" s="88"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="78" t="s">
-        <v>41</v>
+      <c r="T2" s="82" t="s">
+        <v>40</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>18</v>
@@ -11644,12 +11647,12 @@
         <f>1-J3-K3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
       <c r="U3" s="10" t="s">
         <v>23</v>
       </c>
@@ -11741,9 +11744,6 @@
         <f t="shared" ref="L4:L5" si="1">1-J4-K4</f>
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
       <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="AM4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN4" s="25">
         <v>2000</v>
@@ -11813,7 +11813,7 @@
     </row>
     <row r="5" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="23">
         <v>289627</v>
@@ -11895,7 +11895,7 @@
     </row>
     <row r="6" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="23">
         <v>262704</v>
@@ -11904,7 +11904,7 @@
         <v>273204</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="24">
         <v>0.50909090909090904</v>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z6" s="71">
         <v>0.66369047619047616</v>
@@ -11973,12 +11973,12 @@
         <v>6.5</v>
       </c>
       <c r="AN6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="23">
         <v>235673</v>
@@ -11987,7 +11987,7 @@
         <v>249396</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="24">
         <v>0.47198879551820722</v>
@@ -12008,7 +12008,7 @@
         <v>1.6393442622950817E-3</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" s="23">
         <v>1.5342977725554027E-3</v>
@@ -12035,7 +12035,7 @@
         <v>5.7974000000000005E-2</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="71">
         <v>0.70326409495548958</v>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="8" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="23">
         <v>197816</v>
@@ -12067,7 +12067,7 @@
         <v>211839</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="24">
         <v>0.51034482758620692</v>
@@ -12088,7 +12088,7 @@
         <v>2.8063610851262861E-3</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="23">
         <v>3.0300276114214515E-3</v>
@@ -12115,7 +12115,7 @@
         <v>0.11398000000000003</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="71">
         <v>0.77027027027027029</v>
@@ -12140,15 +12140,15 @@
       </c>
       <c r="AH8" s="44"/>
       <c r="AI8" s="44"/>
-      <c r="AJ8" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
+      <c r="AJ8" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK8" s="78"/>
+      <c r="AL8" s="78"/>
     </row>
     <row r="9" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="23">
         <v>160952</v>
@@ -12157,7 +12157,7 @@
         <v>176470</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="24">
         <v>0.60451977401129942</v>
@@ -12179,7 +12179,7 @@
         <v>1E-3</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P9" s="23">
         <v>4.1525896502580392E-3</v>
@@ -12206,7 +12206,7 @@
         <v>0.11627600000000002</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z9" s="71">
         <v>0.7710280373831776</v>
@@ -12227,25 +12227,25 @@
         <v>1</v>
       </c>
       <c r="AG9" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH9" s="44"/>
       <c r="AI9" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ9" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="AJ9" s="46" t="s">
+      <c r="AK9" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AK9" s="46" t="s">
+      <c r="AL9" s="46" t="s">
         <v>96</v>
-      </c>
-      <c r="AL9" s="46" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="23">
         <v>132311</v>
@@ -12254,7 +12254,7 @@
         <v>143351</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="24">
         <v>0.76551724137931032</v>
@@ -12275,7 +12275,7 @@
         <v>1.1547344110854503E-3</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P10" s="23">
         <v>4.9862944509861482E-3</v>
@@ -12302,7 +12302,7 @@
         <v>8.6592000000000002E-2</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z10" s="71">
         <v>0.77927927927927931</v>
@@ -12323,7 +12323,7 @@
         <v>9</v>
       </c>
       <c r="AG10" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH10" s="44"/>
       <c r="AI10" s="44"/>
@@ -12339,7 +12339,7 @@
     </row>
     <row r="11" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="23">
         <v>110849</v>
@@ -12348,7 +12348,7 @@
         <v>123441</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="24">
         <v>0.81818181818181812</v>
@@ -12371,7 +12371,7 @@
         <v>9.9999999999988987E-5</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="23">
         <v>5.8081155880338586E-3</v>
@@ -12398,7 +12398,7 @@
         <v>5.5268000000000005E-2</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z11" s="71">
         <v>0.84188034188034189</v>
@@ -12419,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="AG11" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH11" s="44"/>
       <c r="AI11" s="44"/>
@@ -12435,7 +12435,7 @@
     </row>
     <row r="12" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="23">
         <v>89027</v>
@@ -12444,7 +12444,7 @@
         <v>98355</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="24">
         <v>0.85074626865671632</v>
@@ -12466,7 +12466,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="23">
         <v>7.5246430745063543E-3</v>
@@ -12493,7 +12493,7 @@
         <v>2.2222000000000002E-2</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z12" s="71">
         <v>0.7192982456140351</v>
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="AG12" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH12" s="44"/>
       <c r="AI12" s="44">
@@ -12522,20 +12522,20 @@
       </c>
       <c r="AJ12" s="50">
         <f>AI12*AJ14</f>
-        <v>1.5600000000000003</v>
+        <v>3.1200000000000006</v>
       </c>
       <c r="AK12" s="50">
         <f>AK14*$AI$12</f>
-        <v>0.93599999999999994</v>
+        <v>1.8719999999999999</v>
       </c>
       <c r="AL12" s="50">
         <f>AL14*$AI$12</f>
-        <v>0.56159999999999999</v>
+        <v>1.1232</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="39">
         <v>70487</v>
@@ -12544,7 +12544,7 @@
         <v>82330</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="24">
         <v>0.85074626865671632</v>
@@ -12566,7 +12566,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13" s="23">
         <v>1.020645363647849E-2</v>
@@ -12593,7 +12593,7 @@
         <v>7.2160000000000011E-3</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z13" s="71">
         <v>0.7192982456140351</v>
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" s="44"/>
       <c r="AI13" s="44">
@@ -12635,7 +12635,7 @@
     </row>
     <row r="14" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="40">
         <f>314094/6.27</f>
@@ -12646,7 +12646,7 @@
         <v>57671.85534591195</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="24">
         <v>0.85074626865671632</v>
@@ -12668,7 +12668,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P14" s="23">
         <v>1.4201688569479806E-2</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z14" s="71">
         <v>0.7192982456140351</v>
@@ -12716,31 +12716,30 @@
         <v>1</v>
       </c>
       <c r="AG14" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" s="49">
         <v>1</v>
       </c>
       <c r="AI14" s="44">
-        <f>0.2</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AJ14" s="48">
         <f>AJ15*$AI$14</f>
-        <v>31.200000000000003</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="AK14" s="48">
         <f t="shared" ref="AK14:AL14" si="4">AK15*$AI$14</f>
-        <v>18.72</v>
+        <v>37.44</v>
       </c>
       <c r="AL14" s="48">
         <f t="shared" si="4"/>
-        <v>11.231999999999999</v>
+        <v>22.463999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="40">
         <f>224490/6.27</f>
@@ -12751,7 +12750,7 @@
         <v>44482.861635220121</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="37">
         <v>0.85074626865671632</v>
@@ -12773,7 +12772,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="23">
         <v>1.9689807514862868E-2</v>
@@ -12800,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z15" s="75">
         <v>0.7192982456140351</v>
@@ -12821,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH15" s="49">
         <v>5</v>
@@ -12841,7 +12840,7 @@
     </row>
     <row r="16" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="40">
         <f>151123/6.27</f>
@@ -12852,7 +12851,7 @@
         <v>33878.773584905655</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="37">
         <v>0.85074626865671632</v>
@@ -12874,7 +12873,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" s="43">
         <v>2.6650488106048104E-2</v>
@@ -12901,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z16" s="75">
         <v>0.7192982456140351</v>
@@ -12922,13 +12921,13 @@
         <v>1</v>
       </c>
       <c r="AG16" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH16" s="49">
         <v>10</v>
       </c>
       <c r="AI16" s="44">
-        <f>EXP(LN(0.5)*AH15/10)</f>
+        <f t="shared" ref="AI16:AI25" si="5">EXP(LN(0.5)*AH15/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="AJ16" s="50">
@@ -12946,7 +12945,7 @@
     </row>
     <row r="17" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="40">
         <f>89288/6.27</f>
@@ -12957,7 +12956,7 @@
         <v>22783.176100628931</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="37">
         <v>0.85074626865671632</v>
@@ -12979,7 +12978,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P17" s="43">
         <v>3.6763608595780588E-2</v>
@@ -13006,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z17" s="75">
         <v>0.7192982456140351</v>
@@ -13027,31 +13026,31 @@
         <v>1</v>
       </c>
       <c r="AG17" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH17" s="49">
         <v>15</v>
       </c>
       <c r="AI17" s="44">
-        <f>EXP(LN(0.5)*AH16/10)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AJ17" s="50">
-        <f t="shared" ref="AJ17:AJ25" si="5">$AJ$15*AI17</f>
+        <f t="shared" ref="AJ17:AJ25" si="6">$AJ$15*AI17</f>
         <v>78</v>
       </c>
       <c r="AK17" s="50">
-        <f t="shared" ref="AK17:AK25" si="6">$AK$15*AI17</f>
+        <f t="shared" ref="AK17:AK25" si="7">$AK$15*AI17</f>
         <v>46.8</v>
       </c>
       <c r="AL17" s="50">
-        <f t="shared" ref="AL17:AL25" si="7">$AL$15*AI17</f>
+        <f t="shared" ref="AL17:AL25" si="8">$AL$15*AI17</f>
         <v>28.08</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="20">
         <f>SUM(B2:B17)</f>
@@ -13066,7 +13065,7 @@
         <v>5703373.2934609242</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="37">
         <v>0.85074626865671632</v>
@@ -13088,7 +13087,7 @@
         <v>1.4367816091954023E-3</v>
       </c>
       <c r="O18" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P18" s="43">
         <v>5.1790400883394136E-2</v>
@@ -13116,7 +13115,7 @@
       </c>
       <c r="X18" s="29"/>
       <c r="Y18" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z18" s="75">
         <v>0.7192982456140351</v>
@@ -13137,25 +13136,25 @@
         <v>1</v>
       </c>
       <c r="AG18" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH18" s="49">
         <v>20</v>
       </c>
       <c r="AI18" s="44">
-        <f>EXP(LN(0.5)*AH17/10)</f>
+        <f t="shared" si="5"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="AJ18" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.154328932550712</v>
       </c>
       <c r="AK18" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.092597359530423</v>
       </c>
       <c r="AL18" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19.855558415718253</v>
       </c>
     </row>
@@ -13163,7 +13162,7 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="O19" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P19" s="43">
         <v>8.3577387695122712E-2</v>
@@ -13190,25 +13189,25 @@
         <v>0</v>
       </c>
       <c r="AG19" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH19" s="49">
         <v>25</v>
       </c>
       <c r="AI19" s="44">
-        <f>EXP(LN(0.5)*AH18/10)</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="AJ19" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="AK19" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.4</v>
       </c>
       <c r="AL19" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.04</v>
       </c>
     </row>
@@ -13216,58 +13215,58 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="F20" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <f>PRODUCT(G3:G18)</f>
         <v>1.4676838219218388E-2</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:L20" si="8">PRODUCT(H3:H18)</f>
+        <f t="shared" ref="H20:L20" si="9">PRODUCT(H3:H18)</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.79671076610996394</v>
       </c>
       <c r="K20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG20" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH20" s="49">
         <v>30</v>
       </c>
       <c r="AI20" s="44">
-        <f>EXP(LN(0.5)*AH19/10)</f>
+        <f t="shared" si="5"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="AJ20" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.577164466275356</v>
       </c>
       <c r="AK20" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.546298679765211</v>
       </c>
       <c r="AL20" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F21" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21">
         <f>1-((1-(H6+I6))*(1-(H7+I7))*(1-(H8+I8)*(1-(H9+I9))))</f>
@@ -13278,48 +13277,48 @@
         <v>5.604000000000001</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21:W21" si="9">5*SUM(S7:S13)</f>
+        <f t="shared" ref="S21:W21" si="10">5*SUM(S7:S13)</f>
         <v>5.604000000000001</v>
       </c>
       <c r="T21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.604000000000001</v>
       </c>
       <c r="U21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="V21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2503200000000003</v>
       </c>
       <c r="W21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2976400000000003</v>
       </c>
       <c r="Y21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG21" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21" s="49">
         <v>35</v>
       </c>
       <c r="AI21" s="44">
-        <f>EXP(LN(0.5)*AH20/10)</f>
+        <f t="shared" si="5"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="AJ21" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.500000000000004</v>
       </c>
       <c r="AK21" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.700000000000001</v>
       </c>
       <c r="AL21" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
@@ -13327,75 +13326,75 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="Y22" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG22" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH22" s="49">
         <v>40</v>
       </c>
       <c r="AI22" s="44">
-        <f>EXP(LN(0.5)*AH21/10)</f>
+        <f t="shared" si="5"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="AJ22" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.788582233137678</v>
       </c>
       <c r="AK22" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.2731493398826057</v>
       </c>
       <c r="AL22" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="12"/>
       <c r="F23" s="35"/>
       <c r="P23" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" s="31" t="s">
+      <c r="R23" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="R23" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="S23" s="31" t="s">
         <v>19</v>
       </c>
       <c r="T23" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG23" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH23" s="49">
         <v>45</v>
       </c>
       <c r="AI23" s="44">
-        <f>EXP(LN(0.5)*AH22/10)</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="AJ23" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.75</v>
       </c>
       <c r="AK23" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.85</v>
       </c>
       <c r="AL23" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.51</v>
       </c>
     </row>
@@ -13403,7 +13402,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="O24" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P24" s="33">
         <f>S7/$R$7</f>
@@ -13426,49 +13425,49 @@
         <v>0.41000000000000003</v>
       </c>
       <c r="AG24" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH24" s="49">
         <v>50</v>
       </c>
       <c r="AI24" s="44">
-        <f>EXP(LN(0.5)*AH23/10)</f>
+        <f t="shared" si="5"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="AJ24" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.894291116568839</v>
       </c>
       <c r="AK24" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1365746699413029</v>
       </c>
       <c r="AL24" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4819448019647816</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="AG25" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH25" s="49">
         <v>55</v>
       </c>
       <c r="AI25" s="44">
-        <f>EXP(LN(0.5)*AH24/10)</f>
+        <f t="shared" si="5"/>
         <v>3.125E-2</v>
       </c>
       <c r="AJ25" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.875</v>
       </c>
       <c r="AK25" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9249999999999998</v>
       </c>
       <c r="AL25" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7549999999999999</v>
       </c>
     </row>
@@ -13489,7 +13488,7 @@
         <v>17</v>
       </c>
       <c r="T27" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U27" s="64" t="s">
         <v>18</v>
@@ -13575,15 +13574,15 @@
       </c>
       <c r="AH30" s="44"/>
       <c r="AI30" s="44"/>
-      <c r="AJ30" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK30" s="86"/>
-      <c r="AL30" s="86"/>
+      <c r="AJ30" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
     </row>
     <row r="31" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31">
         <f>16661041/2656744</f>
@@ -13625,16 +13624,16 @@
       </c>
       <c r="AH31" s="44"/>
       <c r="AI31" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ31" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="AJ31" s="46" t="s">
+      <c r="AK31" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AK31" s="46" t="s">
+      <c r="AL31" s="46" t="s">
         <v>96</v>
-      </c>
-      <c r="AL31" s="46" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
@@ -13665,7 +13664,7 @@
       <c r="AD32" s="30"/>
       <c r="AE32" s="30"/>
       <c r="AG32" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH32" s="44"/>
       <c r="AI32" s="44"/>
@@ -13707,7 +13706,7 @@
       <c r="AD33" s="58"/>
       <c r="AE33" s="58"/>
       <c r="AG33" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH33" s="44"/>
       <c r="AI33" s="44"/>
@@ -13749,7 +13748,7 @@
       <c r="AD34" s="59"/>
       <c r="AE34" s="59"/>
       <c r="AG34" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH34" s="44"/>
       <c r="AI34" s="44">
@@ -13760,17 +13759,17 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="AK34" s="48">
-        <f t="shared" ref="AK34:AL34" si="10">$AI$34*AK37</f>
+        <f t="shared" ref="AK34:AL34" si="11">$AI$34*AK37</f>
         <v>4.68</v>
       </c>
       <c r="AL34" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8079999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -13805,7 +13804,7 @@
       <c r="AD35" s="59"/>
       <c r="AE35" s="59"/>
       <c r="AG35" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH35" s="44"/>
       <c r="AI35" s="44">
@@ -13816,11 +13815,11 @@
         <v>15.600000000000001</v>
       </c>
       <c r="AK35" s="50">
-        <f t="shared" ref="AK35:AL35" si="11">AK37*$AI$35</f>
+        <f t="shared" ref="AK35:AL35" si="12">AK37*$AI$35</f>
         <v>9.36</v>
       </c>
       <c r="AL35" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.6159999999999997</v>
       </c>
     </row>
@@ -13862,26 +13861,25 @@
       <c r="AD36" s="59"/>
       <c r="AE36" s="59"/>
       <c r="AG36" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH36" s="49">
         <v>1</v>
       </c>
       <c r="AI36" s="44">
-        <f>0.2</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AJ36" s="48">
         <f>AJ37*$AI$36</f>
-        <v>31.200000000000003</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="AK36" s="48">
-        <f t="shared" ref="AK36:AL36" si="12">AK37*$AI$36</f>
-        <v>18.72</v>
+        <f t="shared" ref="AK36:AL36" si="13">AK37*$AI$36</f>
+        <v>37.44</v>
       </c>
       <c r="AL36" s="48">
-        <f t="shared" si="12"/>
-        <v>11.231999999999999</v>
+        <f t="shared" si="13"/>
+        <v>22.463999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -13921,7 +13919,7 @@
       <c r="AD37" s="60"/>
       <c r="AE37" s="60"/>
       <c r="AG37" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH37" s="49">
         <v>5</v>
@@ -13976,13 +13974,13 @@
       <c r="AD38" s="60"/>
       <c r="AE38" s="60"/>
       <c r="AG38" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH38" s="49">
         <v>10</v>
       </c>
       <c r="AI38" s="44">
-        <f>EXP(LN(0.5)*AH37/10)</f>
+        <f t="shared" ref="AI38:AI47" si="14">EXP(LN(0.5)*AH37/10)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="AJ38" s="48">
@@ -14000,7 +13998,7 @@
     </row>
     <row r="39" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="23">
         <v>-289627</v>
@@ -14035,31 +14033,31 @@
       <c r="AD39" s="60"/>
       <c r="AE39" s="60"/>
       <c r="AG39" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH39" s="49">
         <v>15</v>
       </c>
       <c r="AI39" s="44">
-        <f>EXP(LN(0.5)*AH38/10)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="AJ39" s="48">
-        <f>$AJ$37*AI39</f>
+        <f t="shared" ref="AJ39:AJ47" si="15">$AJ$37*AI39</f>
         <v>78</v>
       </c>
       <c r="AK39" s="48">
-        <f>$AK$37*AI39</f>
+        <f t="shared" ref="AK39:AK47" si="16">$AK$37*AI39</f>
         <v>46.8</v>
       </c>
       <c r="AL39" s="48">
-        <f>$AL$37*AI39</f>
+        <f t="shared" ref="AL39:AL47" si="17">$AL$37*AI39</f>
         <v>28.08</v>
       </c>
     </row>
     <row r="40" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="23">
         <v>-262704</v>
@@ -14094,31 +14092,31 @@
       <c r="AD40" s="60"/>
       <c r="AE40" s="60"/>
       <c r="AG40" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH40" s="49">
         <v>20</v>
       </c>
       <c r="AI40" s="44">
-        <f>EXP(LN(0.5)*AH39/10)</f>
+        <f t="shared" si="14"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="AJ40" s="48">
-        <f>$AJ$37*AI40</f>
+        <f t="shared" si="15"/>
         <v>55.154328932550712</v>
       </c>
       <c r="AK40" s="48">
-        <f>$AK$37*AI40</f>
+        <f t="shared" si="16"/>
         <v>33.092597359530423</v>
       </c>
       <c r="AL40" s="48">
-        <f>$AL$37*AI40</f>
+        <f t="shared" si="17"/>
         <v>19.855558415718253</v>
       </c>
     </row>
     <row r="41" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="23">
         <v>-235673</v>
@@ -14153,31 +14151,31 @@
       <c r="AD41" s="60"/>
       <c r="AE41" s="60"/>
       <c r="AG41" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH41" s="49">
         <v>25</v>
       </c>
       <c r="AI41" s="44">
-        <f>EXP(LN(0.5)*AH40/10)</f>
+        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
       <c r="AJ41" s="48">
-        <f>$AJ$37*AI41</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="AK41" s="48">
-        <f>$AK$37*AI41</f>
+        <f t="shared" si="16"/>
         <v>23.4</v>
       </c>
       <c r="AL41" s="48">
-        <f>$AL$37*AI41</f>
+        <f t="shared" si="17"/>
         <v>14.04</v>
       </c>
     </row>
     <row r="42" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="23">
         <v>-197816</v>
@@ -14212,31 +14210,31 @@
       <c r="AD42" s="60"/>
       <c r="AE42" s="60"/>
       <c r="AG42" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH42" s="49">
         <v>30</v>
       </c>
       <c r="AI42" s="44">
-        <f>EXP(LN(0.5)*AH41/10)</f>
+        <f t="shared" si="14"/>
         <v>0.17677669529663689</v>
       </c>
       <c r="AJ42" s="48">
-        <f>$AJ$37*AI42</f>
+        <f t="shared" si="15"/>
         <v>27.577164466275356</v>
       </c>
       <c r="AK42" s="48">
-        <f>$AK$37*AI42</f>
+        <f t="shared" si="16"/>
         <v>16.546298679765211</v>
       </c>
       <c r="AL42" s="48">
-        <f>$AL$37*AI42</f>
+        <f t="shared" si="17"/>
         <v>9.9277792078591265</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="23">
         <v>-160952</v>
@@ -14271,31 +14269,31 @@
       <c r="AD43" s="60"/>
       <c r="AE43" s="60"/>
       <c r="AG43" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH43" s="49">
         <v>35</v>
       </c>
       <c r="AI43" s="44">
-        <f>EXP(LN(0.5)*AH42/10)</f>
+        <f t="shared" si="14"/>
         <v>0.12500000000000003</v>
       </c>
       <c r="AJ43" s="48">
-        <f>$AJ$37*AI43</f>
+        <f t="shared" si="15"/>
         <v>19.500000000000004</v>
       </c>
       <c r="AK43" s="48">
-        <f>$AK$37*AI43</f>
+        <f t="shared" si="16"/>
         <v>11.700000000000001</v>
       </c>
       <c r="AL43" s="48">
-        <f>$AL$37*AI43</f>
+        <f t="shared" si="17"/>
         <v>7.0200000000000014</v>
       </c>
     </row>
     <row r="44" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="23">
         <v>-132311</v>
@@ -14330,31 +14328,31 @@
       <c r="AD44" s="60"/>
       <c r="AE44" s="60"/>
       <c r="AG44" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" s="49">
         <v>40</v>
       </c>
       <c r="AI44" s="44">
-        <f>EXP(LN(0.5)*AH43/10)</f>
+        <f t="shared" si="14"/>
         <v>8.8388347648318447E-2</v>
       </c>
       <c r="AJ44" s="48">
-        <f>$AJ$37*AI44</f>
+        <f t="shared" si="15"/>
         <v>13.788582233137678</v>
       </c>
       <c r="AK44" s="48">
-        <f>$AK$37*AI44</f>
+        <f t="shared" si="16"/>
         <v>8.2731493398826057</v>
       </c>
       <c r="AL44" s="48">
-        <f>$AL$37*AI44</f>
+        <f t="shared" si="17"/>
         <v>4.9638896039295632</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="23">
         <v>-110849</v>
@@ -14371,31 +14369,31 @@
       <c r="AD45" s="60"/>
       <c r="AE45" s="60"/>
       <c r="AG45" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH45" s="49">
         <v>45</v>
       </c>
       <c r="AI45" s="44">
-        <f>EXP(LN(0.5)*AH44/10)</f>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="AJ45" s="48">
-        <f>$AJ$37*AI45</f>
+        <f t="shared" si="15"/>
         <v>9.75</v>
       </c>
       <c r="AK45" s="48">
-        <f>$AK$37*AI45</f>
+        <f t="shared" si="16"/>
         <v>5.85</v>
       </c>
       <c r="AL45" s="48">
-        <f>$AL$37*AI45</f>
+        <f t="shared" si="17"/>
         <v>3.51</v>
       </c>
     </row>
     <row r="46" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="23">
         <v>-89027</v>
@@ -14408,23 +14406,23 @@
         <v>2.8020000000000005</v>
       </c>
       <c r="S46">
-        <f t="shared" ref="S46:W46" si="13">5*SUM(S29:S44)</f>
+        <f t="shared" ref="S46:W46" si="18">5*SUM(S29:S44)</f>
         <v>2.8020000000000005</v>
       </c>
       <c r="T46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.8020000000000005</v>
       </c>
       <c r="U46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.6251600000000002</v>
       </c>
       <c r="V46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.6251600000000002</v>
       </c>
       <c r="W46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.1488200000000002</v>
       </c>
       <c r="X46" s="58"/>
@@ -14436,31 +14434,31 @@
       <c r="AD46" s="58"/>
       <c r="AE46" s="58"/>
       <c r="AG46" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH46" s="49">
         <v>50</v>
       </c>
       <c r="AI46" s="44">
-        <f>EXP(LN(0.5)*AH45/10)</f>
+        <f t="shared" si="14"/>
         <v>4.4194173824159223E-2</v>
       </c>
       <c r="AJ46" s="48">
-        <f>$AJ$37*AI46</f>
+        <f t="shared" si="15"/>
         <v>6.894291116568839</v>
       </c>
       <c r="AK46" s="48">
-        <f>$AK$37*AI46</f>
+        <f t="shared" si="16"/>
         <v>4.1365746699413029</v>
       </c>
       <c r="AL46" s="48">
-        <f>$AL$37*AI46</f>
+        <f t="shared" si="17"/>
         <v>2.4819448019647816</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="39">
         <v>-70487</v>
@@ -14477,31 +14475,31 @@
       <c r="AD47" s="61"/>
       <c r="AE47" s="61"/>
       <c r="AG47" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH47" s="49">
         <v>55</v>
       </c>
       <c r="AI47" s="44">
-        <f>EXP(LN(0.5)*AH46/10)</f>
+        <f t="shared" si="14"/>
         <v>3.125E-2</v>
       </c>
       <c r="AJ47" s="48">
-        <f>$AJ$37*AI47</f>
+        <f t="shared" si="15"/>
         <v>4.875</v>
       </c>
       <c r="AK47" s="48">
-        <f>$AK$37*AI47</f>
+        <f t="shared" si="16"/>
         <v>2.9249999999999998</v>
       </c>
       <c r="AL47" s="48">
-        <f>$AL$37*AI47</f>
+        <f t="shared" si="17"/>
         <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A48" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="40">
         <v>-50094.736842105267</v>
@@ -14514,7 +14512,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="40">
         <v>-35803.827751196171</v>
@@ -14526,7 +14524,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="40">
         <v>-24102.551834130783</v>
@@ -14538,7 +14536,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="40">
         <v>-14240.510366826158</v>
@@ -14553,15 +14551,15 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -14594,18 +14592,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:P3"/>
     <mergeCell ref="AJ8:AL8"/>
     <mergeCell ref="AJ30:AL30"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14634,15 +14632,15 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="T2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -14663,22 +14661,22 @@
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
       <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" t="s">
         <v>53</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>56</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>57</v>
       </c>
       <c r="T3">
         <v>1985</v>
@@ -14698,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>0</v>
@@ -14707,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>0</v>
@@ -14716,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>1985</v>
@@ -14749,7 +14747,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="16">
         <v>1526597</v>
@@ -14809,7 +14807,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="16">
         <v>2292625</v>
@@ -14869,7 +14867,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="16">
         <v>139799</v>
@@ -14929,7 +14927,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="16">
         <f>SUM(B5:B7)</f>
@@ -14976,7 +14974,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="S9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T9">
         <v>2015</v>
@@ -14987,7 +14985,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="20">
         <f>SUM(B5:B6)</f>
@@ -15030,7 +15028,7 @@
         <v>240724.45454545456</v>
       </c>
       <c r="S10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T10">
         <v>2016</v>
@@ -15041,7 +15039,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T11">
         <v>2017</v>
@@ -15052,10 +15050,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T12">
         <v>2018</v>
@@ -15066,10 +15064,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T13">
         <v>2019</v>
@@ -15080,7 +15078,7 @@
     </row>
     <row r="16" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <f>LN(J10/Demographics!D18)/((2011-1985)*4)</f>
@@ -15089,7 +15087,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <f>LN(J10/Demographics!D18)/((2011-1985))</f>
@@ -15098,15 +15096,15 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.35">
@@ -15117,10 +15115,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
         <v>61</v>
-      </c>
-      <c r="H33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.35">
@@ -15211,10 +15209,10 @@
         <v>0.223</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.35">
@@ -15297,7 +15295,7 @@
         <v>0.318</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.35">

--- a/Config/PopData.xlsx
+++ b/Config/PopData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CISNET\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -1582,25 +1582,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,6 +1604,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4003,6 +4003,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4350,6 +4351,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4941,6 +4943,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5047,6 +5050,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5939,6 +5943,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6020,6 +6025,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10956,16 +10962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388937</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>93663</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11408,8 +11414,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N21"/>
+    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11454,35 +11460,35 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="O1" s="87" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="O1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="P1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="82" t="s">
+      <c r="Q1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="R1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="81"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="89"/>
       <c r="Y1" s="3" t="s">
         <v>8</v>
       </c>
@@ -11528,7 +11534,7 @@
       <c r="C2" s="23">
         <v>417311</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
@@ -11547,16 +11553,16 @@
       <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="82" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="82" t="s">
+      <c r="S2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="82" t="s">
+      <c r="T2" s="78" t="s">
         <v>40</v>
       </c>
       <c r="U2" s="8" t="s">
@@ -11647,12 +11653,12 @@
         <f>1-J3-K3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
       <c r="U3" s="10" t="s">
         <v>23</v>
       </c>
@@ -12140,11 +12146,11 @@
       </c>
       <c r="AH8" s="44"/>
       <c r="AI8" s="44"/>
-      <c r="AJ8" s="78" t="s">
+      <c r="AJ8" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
     </row>
     <row r="9" spans="1:42" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
@@ -13574,11 +13580,11 @@
       </c>
       <c r="AH30" s="44"/>
       <c r="AI30" s="44"/>
-      <c r="AJ30" s="78" t="s">
+      <c r="AJ30" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="AK30" s="78"/>
-      <c r="AL30" s="78"/>
+      <c r="AK30" s="86"/>
+      <c r="AL30" s="86"/>
     </row>
     <row r="31" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="42" t="s">
@@ -14592,18 +14598,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="P1:P3"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14616,7 +14622,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
